--- a/finansy_osnova_10dec.xlsx
+++ b/finansy_osnova_10dec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\case_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A527500-5AAA-4A9E-AA1F-5F4B9094EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8187DA-0998-4EAB-B724-E43C2864479F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1260" windowWidth="20070" windowHeight="16875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1260" windowWidth="20070" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Номинал" sheetId="6" r:id="rId1"/>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,6 +423,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -704,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B8550-B4BB-4D49-BF4D-B1AFCFC71464}">
-  <dimension ref="A1:V267"/>
+  <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W28" sqref="W9:W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +735,7 @@
     <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -750,7 +751,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>B1/12</f>
         <v>125000</v>
@@ -764,14 +765,14 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -788,7 +789,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,7 +802,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -823,7 +824,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -854,7 +855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -894,12 +895,9 @@
         <f t="shared" ref="T8:T28" si="0">S8/12</f>
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="V8" s="39">
-        <f>1+S8</f>
-        <v>1.075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="40"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="11">
@@ -929,12 +927,16 @@
         <f t="shared" si="0"/>
         <v>5.8333333333333327E-3</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="40">
         <f t="shared" ref="V9:V28" si="3">1+S9</f>
         <v>1.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="40">
+        <f>V9</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -967,12 +969,16 @@
         <f t="shared" si="0"/>
         <v>5.416666666666666E-3</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="40">
         <f t="shared" si="3"/>
         <v>1.0649999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <f>W9*V10</f>
+        <v>1.1395500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1018,12 +1024,16 @@
         <f t="shared" si="0"/>
         <v>4.9999999999999992E-3</v>
       </c>
-      <c r="V11" s="39">
+      <c r="V11" s="40">
         <f t="shared" si="3"/>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <f t="shared" ref="W11:W29" si="4">W10*V11</f>
+        <v>1.2079230000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J12" s="11">
         <v>5</v>
       </c>
@@ -1052,12 +1062,16 @@
         <f t="shared" si="0"/>
         <v>4.5833333333333325E-3</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="40">
         <f t="shared" si="3"/>
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <f t="shared" si="4"/>
+        <v>1.2743587650000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1089,12 +1103,16 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="40">
         <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <f t="shared" si="4"/>
+        <v>1.3380767032500003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1119,12 +1137,16 @@
         <f t="shared" si="0"/>
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="40">
         <f t="shared" si="3"/>
         <v>1.0449999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>1.3982901548962503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>2023</v>
       </c>
@@ -1155,12 +1177,16 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V15" s="39">
+      <c r="V15" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>1.4542217610921004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>35</v>
       </c>
@@ -1187,19 +1213,23 @@
         <v>2031</v>
       </c>
       <c r="S16" s="37">
-        <f t="shared" ref="S16:S28" si="4">S15</f>
+        <f t="shared" ref="S16:S28" si="5">S15</f>
         <v>0.04</v>
       </c>
       <c r="T16" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V16" s="39">
+      <c r="V16" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f t="shared" si="4"/>
+        <v>1.5123906315357845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1211,11 +1241,11 @@
         <v>4.8675505653430484E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:H17" si="5">(1+G16)^(1/12)-1</f>
+        <f t="shared" ref="G17:H17" si="6">(1+G16)^(1/12)-1</f>
         <v>3.2737397821989145E-3</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2737397821989145E-3</v>
       </c>
       <c r="J17" s="11">
@@ -1232,19 +1262,23 @@
         <v>2032</v>
       </c>
       <c r="S17" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T17" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="4"/>
+        <v>1.5728862567972159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1263,19 +1297,23 @@
         <v>2033</v>
       </c>
       <c r="S18" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T18" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V18" s="39">
+      <c r="V18" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>1.6358017070691047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1289,19 +1327,23 @@
         <v>2034</v>
       </c>
       <c r="S19" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T19" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V19" s="39">
+      <c r="V19" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="4"/>
+        <v>1.7012337753518689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1316,70 +1358,86 @@
         <v>2035</v>
       </c>
       <c r="S20" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T20" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V20" s="39">
+      <c r="V20" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="4"/>
+        <v>1.7692831263659436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R21">
         <v>2036</v>
       </c>
       <c r="S21" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T21" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>1.8400544514205814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R22">
         <v>2037</v>
       </c>
       <c r="S22" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T22" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V22" s="39">
+      <c r="V22" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f t="shared" si="4"/>
+        <v>1.9136566294774047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R23">
         <v>2038</v>
       </c>
       <c r="S23" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T23" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f t="shared" si="4"/>
+        <v>1.9902028946565009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -1420,19 +1478,23 @@
         <v>2039</v>
       </c>
       <c r="S24" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T24" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V24" s="39">
+      <c r="V24" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <f t="shared" si="4"/>
+        <v>2.0698110104427609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45231</v>
       </c>
@@ -1474,26 +1536,30 @@
         <v>0</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" ref="N25:N88" si="6">J25-K25</f>
+        <f t="shared" ref="N25:N88" si="7">J25-K25</f>
         <v>0</v>
       </c>
       <c r="R25">
         <v>2040</v>
       </c>
       <c r="S25" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T25" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V25" s="39">
+      <c r="V25" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>2.1526034508604717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>45261</v>
       </c>
@@ -1537,26 +1603,30 @@
         <v>0</v>
       </c>
       <c r="N26" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R26">
         <v>2041</v>
       </c>
       <c r="S26" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T26" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V26" s="39">
+      <c r="V26" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>2.2387075888948904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45292</v>
       </c>
@@ -1564,7 +1634,7 @@
         <v>125000</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" ref="C27:C38" si="7">C26*(1+$T$9)</f>
+        <f t="shared" ref="C27:C38" si="8">C26*(1+$T$9)</f>
         <v>126514.97395833336</v>
       </c>
       <c r="D27">
@@ -1575,19 +1645,19 @@
         <v>26514.973958333358</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" ref="F27:F39" si="8">F26-H26</f>
+        <f t="shared" ref="F27:F39" si="9">F26-H26</f>
         <v>999218.75</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" ref="G27:G40" si="9">(0.3/12)*F27</f>
+        <f t="shared" ref="G27:G40" si="10">(0.3/12)*F27</f>
         <v>24980.468749999996</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ref="H27:H40" si="10">I27-G27</f>
+        <f t="shared" ref="H27:H40" si="11">I27-G27</f>
         <v>1534.5052083333612</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" ref="I27:I35" si="11">E27</f>
+        <f t="shared" ref="I27:I35" si="12">E27</f>
         <v>26514.973958333358</v>
       </c>
       <c r="J27">
@@ -1600,26 +1670,30 @@
         <v>0</v>
       </c>
       <c r="N27" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R27">
         <v>2042</v>
       </c>
       <c r="S27" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T27" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V27" s="39">
+      <c r="V27" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="4"/>
+        <v>2.3282558924506862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45323</v>
       </c>
@@ -1627,30 +1701,30 @@
         <v>125000</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127252.97797309031</v>
       </c>
       <c r="D28">
         <v>100000</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E90" si="12">C28-D28</f>
+        <f t="shared" ref="E28:E90" si="13">C28-D28</f>
         <v>27252.97797309031</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>997684.24479166663</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24942.106119791664</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2310.8718532986459</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27252.97797309031</v>
       </c>
       <c r="J28">
@@ -1663,26 +1737,30 @@
         <v>0</v>
       </c>
       <c r="N28" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R28">
         <v>2043</v>
       </c>
       <c r="S28" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="T28" s="37">
         <f t="shared" si="0"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="V28" s="39">
+      <c r="V28" s="40">
         <f t="shared" si="3"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="4"/>
+        <v>2.4213861281487139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45352</v>
       </c>
@@ -1690,32 +1768,32 @@
         <v>125000</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127995.28701126667</v>
       </c>
       <c r="D29">
         <v>100000</v>
       </c>
       <c r="E29" s="8">
+        <f t="shared" si="13"/>
+        <v>27995.287011266671</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="9"/>
+        <v>995373.372938368</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="10"/>
+        <v>24884.334323459199</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="11"/>
+        <v>3110.9526878074721</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="12"/>
         <v>27995.287011266671</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="8"/>
-        <v>995373.372938368</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="9"/>
-        <v>24884.334323459199</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="10"/>
-        <v>3110.9526878074721</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="11"/>
-        <v>27995.287011266671</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
@@ -1726,15 +1804,15 @@
         <v>0</v>
       </c>
       <c r="N29" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V29" s="39">
         <f>PRODUCT(V8:V28)</f>
-        <v>2.6029900877598657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.4213861281487139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>45383</v>
       </c>
@@ -1742,32 +1820,32 @@
         <v>125000</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128741.92618549906</v>
       </c>
       <c r="D30">
         <v>100000</v>
       </c>
       <c r="E30" s="8">
+        <f t="shared" si="13"/>
+        <v>28741.926185499062</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="9"/>
+        <v>992262.42025056051</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="10"/>
+        <v>24806.56050626401</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="11"/>
+        <v>3935.3656792350521</v>
+      </c>
+      <c r="I30" s="8">
         <f t="shared" si="12"/>
         <v>28741.926185499062</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="8"/>
-        <v>992262.42025056051</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="9"/>
-        <v>24806.56050626401</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="10"/>
-        <v>3935.3656792350521</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="11"/>
-        <v>28741.926185499062</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
@@ -1778,11 +1856,11 @@
         <v>0</v>
       </c>
       <c r="N30" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45413</v>
       </c>
@@ -1790,23 +1868,23 @@
         <v>125000</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>129492.92075491448</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>129492.92075491448</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>988327.05457132543</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24708.176364283132</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>104784.74439063134</v>
       </c>
       <c r="I31" s="8">
@@ -1823,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="N31" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>45444</v>
       </c>
@@ -1835,11 +1913,11 @@
         <v>125000</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>130248.29612598481</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>130248.29612598481</v>
       </c>
       <c r="F32" s="8">
@@ -1847,15 +1925,15 @@
         <v>883542.3101806941</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22088.557754517351</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>108159.73837146745</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>130248.29612598481</v>
       </c>
       <c r="J32">
@@ -1868,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,23 +1958,23 @@
         <v>125000</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>131008.07785338639</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>131008.07785338639</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>775382.57180922665</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19384.564295230666</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>111623.51355815573</v>
       </c>
       <c r="I33" s="8">
@@ -1913,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1925,29 +2003,29 @@
         <v>125000</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>131772.29164086448</v>
       </c>
       <c r="E34" s="8">
+        <f t="shared" si="13"/>
+        <v>131772.29164086448</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="9"/>
+        <v>663759.05825107091</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="10"/>
+        <v>16593.97645627677</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="11"/>
+        <v>115178.31518458771</v>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" si="12"/>
         <v>131772.29164086448</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" si="8"/>
-        <v>663759.05825107091</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="9"/>
-        <v>16593.97645627677</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="10"/>
-        <v>115178.31518458771</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="11"/>
-        <v>131772.29164086448</v>
-      </c>
       <c r="J34">
         <v>0</v>
       </c>
@@ -1958,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1970,11 +2048,11 @@
         <v>125000</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>132540.96334210286</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>132540.96334210286</v>
       </c>
       <c r="F35" s="18">
@@ -1982,15 +2060,15 @@
         <v>548580.74306648318</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13714.518576662078</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>118826.44476544077</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>132540.96334210286</v>
       </c>
       <c r="J35" s="16">
@@ -2006,7 +2084,7 @@
         <v>600000</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2018,23 +2096,23 @@
         <v>125000</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>133314.11896159846</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>133314.11896159846</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>429754.29830104241</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10743.857457526059</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>118620.2615040724</v>
       </c>
       <c r="I36" s="8">
@@ -2053,7 +2131,7 @@
         <v>600000</v>
       </c>
       <c r="N36" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2065,19 +2143,19 @@
         <v>125000</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>134091.78465554112</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>134091.78465554112</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>311134.03679697</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7778.350919924249</v>
       </c>
       <c r="H37" s="8">
@@ -2085,22 +2163,22 @@
         <v>122363.43373561687</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" ref="I37:I38" si="13">E37-J37</f>
+        <f t="shared" ref="I37:I38" si="14">E37-J37</f>
         <v>130141.78465554112</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" ref="J37:J38" si="14">K37</f>
+        <f t="shared" ref="J37:J38" si="15">K37</f>
         <v>3950</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" ref="K37:K100" si="15">M37*$K$20</f>
+        <f t="shared" ref="K37:K100" si="16">M37*$K$20</f>
         <v>3950</v>
       </c>
       <c r="M37" s="31">
         <v>600000</v>
       </c>
       <c r="N37" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2112,42 +2190,42 @@
         <v>125000</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>134873.98673269845</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>134873.98673269845</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>188770.60306135315</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4719.2650765338285</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>126204.72165616462</v>
       </c>
       <c r="I38" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>130923.98673269845</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="14"/>
-        <v>3950</v>
-      </c>
-      <c r="K38" s="14">
         <f t="shared" si="15"/>
         <v>3950</v>
       </c>
+      <c r="K38" s="14">
+        <f t="shared" si="16"/>
+        <v>3950</v>
+      </c>
       <c r="M38" s="31">
         <v>600000</v>
       </c>
       <c r="N38" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2159,19 +2237,19 @@
         <v>125000</v>
       </c>
       <c r="C39" s="27">
-        <f t="shared" ref="C39:C50" si="16">C38*(1+$T$10)</f>
+        <f t="shared" ref="C39:C50" si="17">C38*(1+$T$10)</f>
         <v>135604.55416083391</v>
       </c>
       <c r="E39" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>135604.55416083391</v>
       </c>
       <c r="F39" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62565.881405188527</v>
       </c>
       <c r="G39" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1564.147035129713</v>
       </c>
       <c r="H39" s="27">
@@ -2187,7 +2265,7 @@
         <v>71474.525720515667</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M39" s="36">
@@ -2206,22 +2284,22 @@
         <v>125000</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>136339.0788292051</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>136339.0788292051</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I40" s="8">
@@ -2232,14 +2310,14 @@
         <v>136339.0788292051</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M40" s="31">
         <v>600000</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132389.0788292051</v>
       </c>
     </row>
@@ -2251,11 +2329,11 @@
         <v>125000</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>137077.5821728633</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137077.5821728633</v>
       </c>
       <c r="F41" s="8"/>
@@ -2286,11 +2364,11 @@
         <v>125000</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>137820.0857429663</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137820.0857429663</v>
       </c>
       <c r="F42" s="8"/>
@@ -2302,7 +2380,7 @@
         <v>137820.0857429663</v>
       </c>
       <c r="K42" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M42" s="31">
@@ -2321,11 +2399,11 @@
         <v>125000</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>138566.61120740738</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>138566.61120740738</v>
       </c>
       <c r="F43" s="8"/>
@@ -2333,18 +2411,18 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="14">
-        <f t="shared" ref="J43:J106" si="17">E43</f>
+        <f t="shared" ref="J43:J106" si="18">E43</f>
         <v>138566.61120740738</v>
       </c>
       <c r="K43" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M43" s="31">
         <v>600000</v>
       </c>
       <c r="N43" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134616.61120740738</v>
       </c>
     </row>
@@ -2356,11 +2434,11 @@
         <v>125000</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>139317.18035144749</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>139317.18035144749</v>
       </c>
       <c r="F44" s="8"/>
@@ -2368,18 +2446,18 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>139317.18035144749</v>
       </c>
       <c r="K44" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M44" s="31">
         <v>600000</v>
       </c>
       <c r="N44" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135367.18035144749</v>
       </c>
     </row>
@@ -2391,11 +2469,11 @@
         <v>125000</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>140071.81507835115</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>140071.81507835115</v>
       </c>
       <c r="F45" s="8"/>
@@ -2403,18 +2481,18 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140071.81507835115</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M45" s="31">
         <v>600000</v>
       </c>
       <c r="N45" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136121.81507835115</v>
       </c>
     </row>
@@ -2426,11 +2504,11 @@
         <v>125000</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>140830.53741002554</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>140830.53741002554</v>
       </c>
       <c r="F46" s="8"/>
@@ -2442,14 +2520,14 @@
         <v>140830.53741002554</v>
       </c>
       <c r="K46" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3950</v>
       </c>
       <c r="M46" s="31">
         <v>600000</v>
       </c>
       <c r="N46" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136880.53741002554</v>
       </c>
     </row>
@@ -2461,11 +2539,11 @@
         <v>125000</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>141593.36948766318</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>141593.36948766318</v>
       </c>
       <c r="F47" s="8"/>
@@ -2473,11 +2551,11 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>141593.36948766318</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M47" s="32">
@@ -2485,7 +2563,7 @@
         <v>1242000</v>
       </c>
       <c r="N47" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133416.86948766318</v>
       </c>
     </row>
@@ -2497,11 +2575,11 @@
         <v>125000</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>142360.33357238802</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>142360.33357238802</v>
       </c>
       <c r="F48" s="8"/>
@@ -2509,19 +2587,19 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>142360.33357238802</v>
       </c>
       <c r="K48" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M48" s="32">
-        <f t="shared" ref="M48:M56" si="18">$M$36+$K$9</f>
+        <f t="shared" ref="M48:M56" si="19">$M$36+$K$9</f>
         <v>1242000</v>
       </c>
       <c r="N48" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134183.83357238802</v>
       </c>
     </row>
@@ -2533,11 +2611,11 @@
         <v>125000</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>143131.45204590511</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>143131.45204590511</v>
       </c>
       <c r="F49" s="8"/>
@@ -2545,7 +2623,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>143131.45204590511</v>
       </c>
       <c r="K49" s="14">
@@ -2557,7 +2635,7 @@
         <v>1242000</v>
       </c>
       <c r="N49" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134954.95204590511</v>
       </c>
     </row>
@@ -2569,27 +2647,27 @@
         <v>125000</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="16"/>
-        <v>143906.74741115377</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="12"/>
-        <v>143906.74741115377</v>
-      </c>
-      <c r="J50" s="14">
         <f t="shared" si="17"/>
         <v>143906.74741115377</v>
       </c>
+      <c r="E50" s="8">
+        <f t="shared" si="13"/>
+        <v>143906.74741115377</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="18"/>
+        <v>143906.74741115377</v>
+      </c>
       <c r="K50" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M50" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1242000</v>
       </c>
       <c r="N50" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135730.24741115377</v>
       </c>
     </row>
@@ -2601,27 +2679,27 @@
         <v>125000</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" ref="C51:C62" si="19">C50*(1+$T$11)</f>
+        <f t="shared" ref="C51:C62" si="20">C50*(1+$T$11)</f>
         <v>144626.28114820953</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>144626.28114820953</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>144626.28114820953</v>
       </c>
       <c r="K51" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M51" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1242000</v>
       </c>
       <c r="N51" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136449.78114820953</v>
       </c>
     </row>
@@ -2633,27 +2711,27 @@
         <v>125000</v>
       </c>
       <c r="C52" s="8">
+        <f t="shared" si="20"/>
+        <v>145349.41255395056</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="13"/>
+        <v>145349.41255395056</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="18"/>
+        <v>145349.41255395056</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="16"/>
+        <v>8176.5</v>
+      </c>
+      <c r="M52" s="32">
         <f t="shared" si="19"/>
-        <v>145349.41255395056</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" si="12"/>
-        <v>145349.41255395056</v>
-      </c>
-      <c r="J52" s="14">
-        <f t="shared" si="17"/>
-        <v>145349.41255395056</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" si="15"/>
-        <v>8176.5</v>
-      </c>
-      <c r="M52" s="32">
-        <f t="shared" si="18"/>
         <v>1242000</v>
       </c>
       <c r="N52" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137172.91255395056</v>
       </c>
     </row>
@@ -2665,27 +2743,27 @@
         <v>125000</v>
       </c>
       <c r="C53" s="8">
+        <f t="shared" si="20"/>
+        <v>146076.15961672031</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="13"/>
+        <v>146076.15961672031</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="18"/>
+        <v>146076.15961672031</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="16"/>
+        <v>8176.5</v>
+      </c>
+      <c r="M53" s="32">
         <f t="shared" si="19"/>
-        <v>146076.15961672031</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="12"/>
-        <v>146076.15961672031</v>
-      </c>
-      <c r="J53" s="14">
-        <f t="shared" si="17"/>
-        <v>146076.15961672031</v>
-      </c>
-      <c r="K53" s="14">
-        <f t="shared" si="15"/>
-        <v>8176.5</v>
-      </c>
-      <c r="M53" s="32">
-        <f t="shared" si="18"/>
         <v>1242000</v>
       </c>
       <c r="N53" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137899.65961672031</v>
       </c>
     </row>
@@ -2697,27 +2775,27 @@
         <v>125000</v>
       </c>
       <c r="C54" s="8">
+        <f t="shared" si="20"/>
+        <v>146806.54041480389</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" si="13"/>
+        <v>146806.54041480389</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="18"/>
+        <v>146806.54041480389</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="16"/>
+        <v>8176.5</v>
+      </c>
+      <c r="M54" s="32">
         <f t="shared" si="19"/>
-        <v>146806.54041480389</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="12"/>
-        <v>146806.54041480389</v>
-      </c>
-      <c r="J54" s="14">
-        <f t="shared" si="17"/>
-        <v>146806.54041480389</v>
-      </c>
-      <c r="K54" s="14">
-        <f t="shared" si="15"/>
-        <v>8176.5</v>
-      </c>
-      <c r="M54" s="32">
-        <f t="shared" si="18"/>
         <v>1242000</v>
       </c>
       <c r="N54" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138630.04041480389</v>
       </c>
     </row>
@@ -2729,27 +2807,27 @@
         <v>125000</v>
       </c>
       <c r="C55" s="8">
+        <f t="shared" si="20"/>
+        <v>147540.5731168779</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="13"/>
+        <v>147540.5731168779</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="18"/>
+        <v>147540.5731168779</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="16"/>
+        <v>8176.5</v>
+      </c>
+      <c r="M55" s="32">
         <f t="shared" si="19"/>
-        <v>147540.5731168779</v>
-      </c>
-      <c r="E55" s="8">
-        <f t="shared" si="12"/>
-        <v>147540.5731168779</v>
-      </c>
-      <c r="J55" s="14">
-        <f t="shared" si="17"/>
-        <v>147540.5731168779</v>
-      </c>
-      <c r="K55" s="14">
-        <f t="shared" si="15"/>
-        <v>8176.5</v>
-      </c>
-      <c r="M55" s="32">
-        <f t="shared" si="18"/>
         <v>1242000</v>
       </c>
       <c r="N55" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139364.0731168779</v>
       </c>
     </row>
@@ -2761,27 +2839,27 @@
         <v>125000</v>
       </c>
       <c r="C56" s="8">
+        <f t="shared" si="20"/>
+        <v>148278.27598246228</v>
+      </c>
+      <c r="E56" s="8">
+        <f t="shared" si="13"/>
+        <v>148278.27598246228</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="18"/>
+        <v>148278.27598246228</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="16"/>
+        <v>8176.5</v>
+      </c>
+      <c r="M56" s="32">
         <f t="shared" si="19"/>
-        <v>148278.27598246228</v>
-      </c>
-      <c r="E56" s="8">
-        <f t="shared" si="12"/>
-        <v>148278.27598246228</v>
-      </c>
-      <c r="J56" s="14">
-        <f t="shared" si="17"/>
-        <v>148278.27598246228</v>
-      </c>
-      <c r="K56" s="14">
-        <f t="shared" si="15"/>
-        <v>8176.5</v>
-      </c>
-      <c r="M56" s="32">
-        <f t="shared" si="18"/>
         <v>1242000</v>
       </c>
       <c r="N56" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140101.77598246228</v>
       </c>
     </row>
@@ -2793,19 +2871,19 @@
         <v>125000</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>149019.66736237457</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>149019.66736237457</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>149019.66736237457</v>
       </c>
       <c r="K57" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M57" s="32">
@@ -2813,7 +2891,7 @@
         <v>1242000</v>
       </c>
       <c r="N57" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140843.16736237457</v>
       </c>
     </row>
@@ -2825,19 +2903,19 @@
         <v>125000</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>149764.76569918642</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>149764.76569918642</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>149764.76569918642</v>
       </c>
       <c r="K58" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8176.5</v>
       </c>
       <c r="M58" s="32">
@@ -2845,7 +2923,7 @@
         <v>1242000</v>
       </c>
       <c r="N58" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141588.26569918642</v>
       </c>
     </row>
@@ -2857,27 +2935,27 @@
         <v>125000</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>150513.58952768234</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>150513.58952768234</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>150513.58952768234</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M59" s="32">
-        <f t="shared" ref="M59:M64" si="20">$M$58+K$10</f>
+        <f t="shared" ref="M59:M64" si="21">$M$58+K$10</f>
         <v>1925730</v>
       </c>
       <c r="N59" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137835.86702768234</v>
       </c>
     </row>
@@ -2889,27 +2967,27 @@
         <v>125000</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>151266.15747532074</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>151266.15747532074</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>151266.15747532074</v>
       </c>
       <c r="K60" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M60" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1925730</v>
       </c>
       <c r="N60" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138588.43497532074</v>
       </c>
     </row>
@@ -2921,27 +2999,27 @@
         <v>125000</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>152022.48826269733</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>152022.48826269733</v>
       </c>
       <c r="J61" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>152022.48826269733</v>
       </c>
       <c r="K61" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M61" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1925730</v>
       </c>
       <c r="N61" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139344.76576269732</v>
       </c>
     </row>
@@ -2953,27 +3031,27 @@
         <v>125000</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>152782.60070401081</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>152782.60070401081</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>152782.60070401081</v>
       </c>
       <c r="K62" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M62" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1925730</v>
       </c>
       <c r="N62" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140104.87820401081</v>
       </c>
     </row>
@@ -2985,27 +3063,27 @@
         <v>125000</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" ref="C63:C74" si="21">C62*(1+$T$12)</f>
+        <f t="shared" ref="C63:C74" si="22">C62*(1+$T$12)</f>
         <v>153482.85429057086</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>153482.85429057086</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>153482.85429057086</v>
       </c>
       <c r="K63" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M63" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1925730</v>
       </c>
       <c r="N63" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140805.13179057086</v>
       </c>
     </row>
@@ -3017,27 +3095,27 @@
         <v>125000</v>
       </c>
       <c r="C64" s="8">
+        <f t="shared" si="22"/>
+        <v>154186.317372736</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="13"/>
+        <v>154186.317372736</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="18"/>
+        <v>154186.317372736</v>
+      </c>
+      <c r="K64" s="14">
+        <f t="shared" si="16"/>
+        <v>12677.7225</v>
+      </c>
+      <c r="M64" s="32">
         <f t="shared" si="21"/>
-        <v>154186.317372736</v>
-      </c>
-      <c r="E64" s="8">
-        <f t="shared" si="12"/>
-        <v>154186.317372736</v>
-      </c>
-      <c r="J64" s="14">
-        <f t="shared" si="17"/>
-        <v>154186.317372736</v>
-      </c>
-      <c r="K64" s="14">
-        <f t="shared" si="15"/>
-        <v>12677.7225</v>
-      </c>
-      <c r="M64" s="32">
-        <f t="shared" si="20"/>
         <v>1925730</v>
       </c>
       <c r="N64" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141508.59487273599</v>
       </c>
     </row>
@@ -3049,27 +3127,27 @@
         <v>125000</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>154893.00466069437</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>154893.00466069437</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>154893.00466069437</v>
       </c>
       <c r="K65" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M65" s="32">
-        <f t="shared" ref="M65:M70" si="22">$M$58+K$10</f>
+        <f t="shared" ref="M65:M70" si="23">$M$58+K$10</f>
         <v>1925730</v>
       </c>
       <c r="N65" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142215.28216069436</v>
       </c>
     </row>
@@ -3081,27 +3159,27 @@
         <v>125000</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>155602.9309320559</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>155602.9309320559</v>
       </c>
       <c r="J66" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>155602.9309320559</v>
       </c>
       <c r="K66" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M66" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1925730</v>
       </c>
       <c r="N66" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142925.20843205589</v>
       </c>
     </row>
@@ -3113,27 +3191,27 @@
         <v>125000</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>156316.11103216116</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>156316.11103216116</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156316.11103216116</v>
       </c>
       <c r="K67" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M67" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1925730</v>
       </c>
       <c r="N67" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143638.38853216116</v>
       </c>
     </row>
@@ -3145,27 +3223,27 @@
         <v>125000</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>157032.55987439191</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>157032.55987439191</v>
       </c>
       <c r="J68" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>157032.55987439191</v>
       </c>
       <c r="K68" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1925730</v>
       </c>
       <c r="N68" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144354.83737439191</v>
       </c>
     </row>
@@ -3177,27 +3255,27 @@
         <v>125000</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>157752.29244048288</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>157752.29244048288</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>157752.29244048288</v>
       </c>
       <c r="K69" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M69" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1925730</v>
       </c>
       <c r="N69" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145074.56994048288</v>
       </c>
     </row>
@@ -3209,27 +3287,27 @@
         <v>125000</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>158475.32378083511</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>158475.32378083511</v>
       </c>
       <c r="J70" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>158475.32378083511</v>
       </c>
       <c r="K70" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12677.7225</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1925730</v>
       </c>
       <c r="N70" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145797.60128083511</v>
       </c>
     </row>
@@ -3241,19 +3319,19 @@
         <v>125000</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>159201.66901483061</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>159201.66901483061</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>159201.66901483061</v>
       </c>
       <c r="K71" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M71" s="32">
@@ -3261,7 +3339,7 @@
         <v>2650483.7999999998</v>
       </c>
       <c r="N71" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141752.65066483061</v>
       </c>
     </row>
@@ -3273,27 +3351,27 @@
         <v>125000</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>159931.34333114859</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>159931.34333114859</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>159931.34333114859</v>
       </c>
       <c r="K72" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M72" s="32">
-        <f t="shared" ref="M72:M81" si="23">$M$70+$K$11</f>
+        <f t="shared" ref="M72:M81" si="24">$M$70+$K$11</f>
         <v>2650483.7999999998</v>
       </c>
       <c r="N72" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142482.32498114859</v>
       </c>
     </row>
@@ -3305,19 +3383,19 @@
         <v>125000</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>160664.36198808302</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>160664.36198808302</v>
       </c>
       <c r="J73" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>160664.36198808302</v>
       </c>
       <c r="K73" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M73" s="32">
@@ -3325,7 +3403,7 @@
         <v>2650483.7999999998</v>
       </c>
       <c r="N73" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143215.34363808302</v>
       </c>
     </row>
@@ -3337,27 +3415,27 @@
         <v>125000</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>161400.74031386175</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>161400.74031386175</v>
       </c>
       <c r="J74" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>161400.74031386175</v>
       </c>
       <c r="K74" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M74" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N74" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143951.72196386175</v>
       </c>
     </row>
@@ -3369,27 +3447,27 @@
         <v>125000</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:C86" si="24">C74*(1+$T$13)</f>
+        <f t="shared" ref="C75:C86" si="25">C74*(1+$T$13)</f>
         <v>162073.24339850285</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>162073.24339850285</v>
       </c>
       <c r="J75" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>162073.24339850285</v>
       </c>
       <c r="K75" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M75" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N75" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144624.22504850285</v>
       </c>
     </row>
@@ -3401,27 +3479,27 @@
         <v>125000</v>
       </c>
       <c r="C76" s="8">
+        <f t="shared" si="25"/>
+        <v>162748.54857932994</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="13"/>
+        <v>162748.54857932994</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="18"/>
+        <v>162748.54857932994</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M76" s="32">
         <f t="shared" si="24"/>
-        <v>162748.54857932994</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="12"/>
-        <v>162748.54857932994</v>
-      </c>
-      <c r="J76" s="14">
-        <f t="shared" si="17"/>
-        <v>162748.54857932994</v>
-      </c>
-      <c r="K76" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M76" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N76" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145299.53022932995</v>
       </c>
     </row>
@@ -3433,27 +3511,27 @@
         <v>125000</v>
       </c>
       <c r="C77" s="8">
+        <f t="shared" si="25"/>
+        <v>163426.66753174382</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="13"/>
+        <v>163426.66753174382</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="18"/>
+        <v>163426.66753174382</v>
+      </c>
+      <c r="K77" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M77" s="32">
         <f t="shared" si="24"/>
-        <v>163426.66753174382</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="12"/>
-        <v>163426.66753174382</v>
-      </c>
-      <c r="J77" s="14">
-        <f t="shared" si="17"/>
-        <v>163426.66753174382</v>
-      </c>
-      <c r="K77" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M77" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N77" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145977.64918174382</v>
       </c>
     </row>
@@ -3465,27 +3543,27 @@
         <v>125000</v>
       </c>
       <c r="C78" s="8">
+        <f t="shared" si="25"/>
+        <v>164107.61197979274</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="13"/>
+        <v>164107.61197979274</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="18"/>
+        <v>164107.61197979274</v>
+      </c>
+      <c r="K78" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M78" s="32">
         <f t="shared" si="24"/>
-        <v>164107.61197979274</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="12"/>
-        <v>164107.61197979274</v>
-      </c>
-      <c r="J78" s="14">
-        <f t="shared" si="17"/>
-        <v>164107.61197979274</v>
-      </c>
-      <c r="K78" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M78" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N78" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146658.59362979274</v>
       </c>
     </row>
@@ -3497,27 +3575,27 @@
         <v>125000</v>
       </c>
       <c r="C79" s="8">
+        <f t="shared" si="25"/>
+        <v>164791.39369637522</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="13"/>
+        <v>164791.39369637522</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="18"/>
+        <v>164791.39369637522</v>
+      </c>
+      <c r="K79" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M79" s="32">
         <f t="shared" si="24"/>
-        <v>164791.39369637522</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="12"/>
-        <v>164791.39369637522</v>
-      </c>
-      <c r="J79" s="14">
-        <f t="shared" si="17"/>
-        <v>164791.39369637522</v>
-      </c>
-      <c r="K79" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M79" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N79" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>147342.37534637522</v>
       </c>
     </row>
@@ -3529,27 +3607,27 @@
         <v>125000</v>
       </c>
       <c r="C80" s="8">
+        <f t="shared" si="25"/>
+        <v>165478.02450344345</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="13"/>
+        <v>165478.02450344345</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="18"/>
+        <v>165478.02450344345</v>
+      </c>
+      <c r="K80" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M80" s="32">
         <f t="shared" si="24"/>
-        <v>165478.02450344345</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="12"/>
-        <v>165478.02450344345</v>
-      </c>
-      <c r="J80" s="14">
-        <f t="shared" si="17"/>
-        <v>165478.02450344345</v>
-      </c>
-      <c r="K80" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M80" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N80" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>148029.00615344345</v>
       </c>
     </row>
@@ -3561,27 +3639,27 @@
         <v>125000</v>
       </c>
       <c r="C81" s="8">
+        <f t="shared" si="25"/>
+        <v>166167.51627220778</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="13"/>
+        <v>166167.51627220778</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="18"/>
+        <v>166167.51627220778</v>
+      </c>
+      <c r="K81" s="14">
+        <f t="shared" si="16"/>
+        <v>17449.018349999998</v>
+      </c>
+      <c r="M81" s="32">
         <f t="shared" si="24"/>
-        <v>166167.51627220778</v>
-      </c>
-      <c r="E81" s="8">
-        <f t="shared" si="12"/>
-        <v>166167.51627220778</v>
-      </c>
-      <c r="J81" s="14">
-        <f t="shared" si="17"/>
-        <v>166167.51627220778</v>
-      </c>
-      <c r="K81" s="14">
-        <f t="shared" si="15"/>
-        <v>17449.018349999998</v>
-      </c>
-      <c r="M81" s="32">
-        <f t="shared" si="23"/>
         <v>2650483.7999999998</v>
       </c>
       <c r="N81" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>148718.49792220778</v>
       </c>
     </row>
@@ -3593,19 +3671,19 @@
         <v>125000</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>166859.88092334199</v>
       </c>
       <c r="E82" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>166859.88092334199</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>166859.88092334199</v>
       </c>
       <c r="K82" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17449.018349999998</v>
       </c>
       <c r="M82" s="32">
@@ -3613,7 +3691,7 @@
         <v>2650483.7999999998</v>
       </c>
       <c r="N82" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149410.86257334199</v>
       </c>
     </row>
@@ -3625,19 +3703,19 @@
         <v>125000</v>
       </c>
       <c r="C83" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>167555.13042718926</v>
       </c>
       <c r="E83" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>167555.13042718926</v>
       </c>
       <c r="J83" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>167555.13042718926</v>
       </c>
       <c r="K83" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22482.735471749998</v>
       </c>
       <c r="M83" s="32">
@@ -3645,7 +3723,7 @@
         <v>3415099.0589999999</v>
       </c>
       <c r="N83" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145072.39495543926</v>
       </c>
     </row>
@@ -3657,27 +3735,27 @@
         <v>125000</v>
       </c>
       <c r="C84" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>168253.2768039692</v>
       </c>
       <c r="E84" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>168253.2768039692</v>
       </c>
       <c r="J84" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>168253.2768039692</v>
       </c>
       <c r="K84" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22482.735471749998</v>
       </c>
       <c r="M84" s="32">
-        <f t="shared" ref="M84:M94" si="25">$M$82+$K$12</f>
+        <f t="shared" ref="M84:M94" si="26">$M$82+$K$12</f>
         <v>3415099.0589999999</v>
       </c>
       <c r="N84" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145770.5413322192</v>
       </c>
     </row>
@@ -3689,27 +3767,27 @@
         <v>125000</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>168954.33212398575</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>168954.33212398575</v>
       </c>
       <c r="J85" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>168954.33212398575</v>
       </c>
       <c r="K85" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22482.735471749998</v>
       </c>
       <c r="M85" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N85" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>146471.59665223575</v>
       </c>
     </row>
@@ -3721,27 +3799,27 @@
         <v>125000</v>
       </c>
       <c r="C86" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>169658.3085078357</v>
       </c>
       <c r="E86" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>169658.3085078357</v>
       </c>
       <c r="J86" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>169658.3085078357</v>
       </c>
       <c r="K86" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22482.735471749998</v>
       </c>
       <c r="M86" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N86" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>147175.5730360857</v>
       </c>
     </row>
@@ -3753,27 +3831,27 @@
         <v>125000</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" ref="C87:C98" si="26">C86*(1+$T$14)</f>
+        <f t="shared" ref="C87:C98" si="27">C86*(1+$T$14)</f>
         <v>170294.52716474008</v>
       </c>
       <c r="E87" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>170294.52716474008</v>
       </c>
       <c r="J87" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>170294.52716474008</v>
       </c>
       <c r="K87" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22482.735471749998</v>
       </c>
       <c r="M87" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N87" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>147811.79169299008</v>
       </c>
     </row>
@@ -3785,27 +3863,27 @@
         <v>125000</v>
       </c>
       <c r="C88" s="8">
+        <f t="shared" si="27"/>
+        <v>170933.13164160785</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="13"/>
+        <v>170933.13164160785</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="18"/>
+        <v>170933.13164160785</v>
+      </c>
+      <c r="K88" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M88" s="32">
         <f t="shared" si="26"/>
-        <v>170933.13164160785</v>
-      </c>
-      <c r="E88" s="8">
-        <f t="shared" si="12"/>
-        <v>170933.13164160785</v>
-      </c>
-      <c r="J88" s="14">
-        <f t="shared" si="17"/>
-        <v>170933.13164160785</v>
-      </c>
-      <c r="K88" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M88" s="32">
-        <f t="shared" si="25"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N88" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>148450.39616985785</v>
       </c>
     </row>
@@ -3817,27 +3895,27 @@
         <v>125000</v>
       </c>
       <c r="C89" s="8">
+        <f t="shared" si="27"/>
+        <v>171574.13088526388</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="13"/>
+        <v>171574.13088526388</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="18"/>
+        <v>171574.13088526388</v>
+      </c>
+      <c r="K89" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M89" s="32">
         <f t="shared" si="26"/>
-        <v>171574.13088526388</v>
-      </c>
-      <c r="E89" s="8">
-        <f t="shared" si="12"/>
-        <v>171574.13088526388</v>
-      </c>
-      <c r="J89" s="14">
-        <f t="shared" si="17"/>
-        <v>171574.13088526388</v>
-      </c>
-      <c r="K89" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M89" s="32">
-        <f t="shared" si="25"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N89" s="23">
-        <f t="shared" ref="N89:N152" si="27">J89-K89</f>
+        <f t="shared" ref="N89:N152" si="28">J89-K89</f>
         <v>149091.39541351388</v>
       </c>
     </row>
@@ -3849,27 +3927,27 @@
         <v>125000</v>
       </c>
       <c r="C90" s="8">
+        <f t="shared" si="27"/>
+        <v>172217.53387608359</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="13"/>
+        <v>172217.53387608359</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="18"/>
+        <v>172217.53387608359</v>
+      </c>
+      <c r="K90" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M90" s="32">
         <f t="shared" si="26"/>
-        <v>172217.53387608359</v>
-      </c>
-      <c r="E90" s="8">
-        <f t="shared" si="12"/>
-        <v>172217.53387608359</v>
-      </c>
-      <c r="J90" s="14">
-        <f t="shared" si="17"/>
-        <v>172217.53387608359</v>
-      </c>
-      <c r="K90" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M90" s="32">
-        <f t="shared" si="25"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N90" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>149734.79840433359</v>
       </c>
     </row>
@@ -3881,27 +3959,27 @@
         <v>125000</v>
       </c>
       <c r="C91" s="8">
+        <f t="shared" si="27"/>
+        <v>172863.34962811889</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" ref="E91:E154" si="29">C91-D91</f>
+        <v>172863.34962811889</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="18"/>
+        <v>172863.34962811889</v>
+      </c>
+      <c r="K91" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M91" s="32">
         <f t="shared" si="26"/>
-        <v>172863.34962811889</v>
-      </c>
-      <c r="E91" s="8">
-        <f t="shared" ref="E91:E154" si="28">C91-D91</f>
-        <v>172863.34962811889</v>
-      </c>
-      <c r="J91" s="14">
-        <f t="shared" si="17"/>
-        <v>172863.34962811889</v>
-      </c>
-      <c r="K91" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M91" s="32">
-        <f t="shared" si="25"/>
         <v>3415099.0589999999</v>
       </c>
       <c r="N91" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>150380.61415636889</v>
       </c>
     </row>
@@ -3913,27 +3991,27 @@
         <v>125000</v>
       </c>
       <c r="C92" s="8">
+        <f t="shared" si="27"/>
+        <v>173511.58718922432</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="29"/>
+        <v>173511.58718922432</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="18"/>
+        <v>173511.58718922432</v>
+      </c>
+      <c r="K92" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M92" s="32">
         <f t="shared" si="26"/>
-        <v>173511.58718922432</v>
-      </c>
-      <c r="E92" s="8">
+        <v>3415099.0589999999</v>
+      </c>
+      <c r="N92" s="23">
         <f t="shared" si="28"/>
-        <v>173511.58718922432</v>
-      </c>
-      <c r="J92" s="14">
-        <f t="shared" si="17"/>
-        <v>173511.58718922432</v>
-      </c>
-      <c r="K92" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M92" s="32">
-        <f t="shared" si="25"/>
-        <v>3415099.0589999999</v>
-      </c>
-      <c r="N92" s="23">
-        <f t="shared" si="27"/>
         <v>151028.85171747432</v>
       </c>
     </row>
@@ -3945,27 +4023,27 @@
         <v>125000</v>
       </c>
       <c r="C93" s="8">
+        <f t="shared" si="27"/>
+        <v>174162.2556411839</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="29"/>
+        <v>174162.2556411839</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="18"/>
+        <v>174162.2556411839</v>
+      </c>
+      <c r="K93" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M93" s="32">
         <f t="shared" si="26"/>
-        <v>174162.2556411839</v>
-      </c>
-      <c r="E93" s="8">
+        <v>3415099.0589999999</v>
+      </c>
+      <c r="N93" s="23">
         <f t="shared" si="28"/>
-        <v>174162.2556411839</v>
-      </c>
-      <c r="J93" s="14">
-        <f t="shared" si="17"/>
-        <v>174162.2556411839</v>
-      </c>
-      <c r="K93" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M93" s="32">
-        <f t="shared" si="25"/>
-        <v>3415099.0589999999</v>
-      </c>
-      <c r="N93" s="23">
-        <f t="shared" si="27"/>
         <v>151679.5201694339</v>
       </c>
     </row>
@@ -3977,27 +4055,27 @@
         <v>125000</v>
       </c>
       <c r="C94" s="8">
+        <f t="shared" si="27"/>
+        <v>174815.36409983833</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="29"/>
+        <v>174815.36409983833</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="18"/>
+        <v>174815.36409983833</v>
+      </c>
+      <c r="K94" s="14">
+        <f t="shared" si="16"/>
+        <v>22482.735471749998</v>
+      </c>
+      <c r="M94" s="32">
         <f t="shared" si="26"/>
-        <v>174815.36409983833</v>
-      </c>
-      <c r="E94" s="8">
+        <v>3415099.0589999999</v>
+      </c>
+      <c r="N94" s="23">
         <f t="shared" si="28"/>
-        <v>174815.36409983833</v>
-      </c>
-      <c r="J94" s="14">
-        <f t="shared" si="17"/>
-        <v>174815.36409983833</v>
-      </c>
-      <c r="K94" s="14">
-        <f t="shared" si="15"/>
-        <v>22482.735471749998</v>
-      </c>
-      <c r="M94" s="32">
-        <f t="shared" si="25"/>
-        <v>3415099.0589999999</v>
-      </c>
-      <c r="N94" s="23">
-        <f t="shared" si="27"/>
         <v>152332.62862808834</v>
       </c>
     </row>
@@ -4009,19 +4087,19 @@
         <v>125000</v>
       </c>
       <c r="C95" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>175470.92171521272</v>
       </c>
       <c r="E95" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>175470.92171521272</v>
       </c>
       <c r="J95" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>175470.92171521272</v>
       </c>
       <c r="K95" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27768.138449587495</v>
       </c>
       <c r="M95" s="32">
@@ -4029,7 +4107,7 @@
         <v>4217945.0809499994</v>
       </c>
       <c r="N95" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>147702.78326562524</v>
       </c>
     </row>
@@ -4041,27 +4119,27 @@
         <v>125000</v>
       </c>
       <c r="C96" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>176128.93767164476</v>
       </c>
       <c r="E96" s="8">
+        <f t="shared" si="29"/>
+        <v>176128.93767164476</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="18"/>
+        <v>176128.93767164476</v>
+      </c>
+      <c r="K96" s="14">
+        <f t="shared" si="16"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M96" s="32">
+        <f t="shared" ref="M96:M106" si="30">$M$94+$K$13</f>
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N96" s="23">
         <f t="shared" si="28"/>
-        <v>176128.93767164476</v>
-      </c>
-      <c r="J96" s="14">
-        <f t="shared" si="17"/>
-        <v>176128.93767164476</v>
-      </c>
-      <c r="K96" s="14">
-        <f t="shared" si="15"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M96" s="32">
-        <f t="shared" ref="M96:M106" si="29">$M$94+$K$13</f>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N96" s="23">
-        <f t="shared" si="27"/>
         <v>148360.79922205728</v>
       </c>
     </row>
@@ -4073,27 +4151,27 @@
         <v>125000</v>
       </c>
       <c r="C97" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>176789.42118791342</v>
       </c>
       <c r="E97" s="8">
+        <f t="shared" si="29"/>
+        <v>176789.42118791342</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="18"/>
+        <v>176789.42118791342</v>
+      </c>
+      <c r="K97" s="14">
+        <f t="shared" si="16"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M97" s="32">
+        <f t="shared" si="30"/>
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N97" s="23">
         <f t="shared" si="28"/>
-        <v>176789.42118791342</v>
-      </c>
-      <c r="J97" s="14">
-        <f t="shared" si="17"/>
-        <v>176789.42118791342</v>
-      </c>
-      <c r="K97" s="14">
-        <f t="shared" si="15"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M97" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N97" s="23">
-        <f t="shared" si="27"/>
         <v>149021.28273832594</v>
       </c>
     </row>
@@ -4105,27 +4183,27 @@
         <v>125000</v>
       </c>
       <c r="C98" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>177452.38151736808</v>
       </c>
       <c r="E98" s="8">
+        <f t="shared" si="29"/>
+        <v>177452.38151736808</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="18"/>
+        <v>177452.38151736808</v>
+      </c>
+      <c r="K98" s="14">
+        <f t="shared" si="16"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M98" s="32">
+        <f t="shared" si="30"/>
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N98" s="23">
         <f t="shared" si="28"/>
-        <v>177452.38151736808</v>
-      </c>
-      <c r="J98" s="14">
-        <f t="shared" si="17"/>
-        <v>177452.38151736808</v>
-      </c>
-      <c r="K98" s="14">
-        <f t="shared" si="15"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M98" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N98" s="23">
-        <f t="shared" si="27"/>
         <v>149684.24306778057</v>
       </c>
     </row>
@@ -4137,27 +4215,27 @@
         <v>125000</v>
       </c>
       <c r="C99" s="8">
-        <f t="shared" ref="C99:C110" si="30">C98*(1+$T$15)</f>
+        <f t="shared" ref="C99:C110" si="31">C98*(1+$T$15)</f>
         <v>178043.88945575932</v>
       </c>
       <c r="E99" s="8">
+        <f t="shared" si="29"/>
+        <v>178043.88945575932</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="18"/>
+        <v>178043.88945575932</v>
+      </c>
+      <c r="K99" s="14">
+        <f t="shared" si="16"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M99" s="32">
+        <f t="shared" si="30"/>
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N99" s="23">
         <f t="shared" si="28"/>
-        <v>178043.88945575932</v>
-      </c>
-      <c r="J99" s="14">
-        <f t="shared" si="17"/>
-        <v>178043.88945575932</v>
-      </c>
-      <c r="K99" s="14">
-        <f t="shared" si="15"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M99" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N99" s="23">
-        <f t="shared" si="27"/>
         <v>150275.75100617181</v>
       </c>
     </row>
@@ -4169,27 +4247,27 @@
         <v>125000</v>
       </c>
       <c r="C100" s="8">
+        <f t="shared" si="31"/>
+        <v>178637.36908727852</v>
+      </c>
+      <c r="E100" s="8">
+        <f t="shared" si="29"/>
+        <v>178637.36908727852</v>
+      </c>
+      <c r="J100" s="14">
+        <f t="shared" si="18"/>
+        <v>178637.36908727852</v>
+      </c>
+      <c r="K100" s="14">
+        <f t="shared" si="16"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M100" s="32">
         <f t="shared" si="30"/>
-        <v>178637.36908727852</v>
-      </c>
-      <c r="E100" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N100" s="23">
         <f t="shared" si="28"/>
-        <v>178637.36908727852</v>
-      </c>
-      <c r="J100" s="14">
-        <f t="shared" si="17"/>
-        <v>178637.36908727852</v>
-      </c>
-      <c r="K100" s="14">
-        <f t="shared" si="15"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M100" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N100" s="23">
-        <f t="shared" si="27"/>
         <v>150869.23063769104</v>
       </c>
     </row>
@@ -4201,27 +4279,27 @@
         <v>125000</v>
       </c>
       <c r="C101" s="8">
+        <f t="shared" si="31"/>
+        <v>179232.82698423613</v>
+      </c>
+      <c r="E101" s="8">
+        <f t="shared" si="29"/>
+        <v>179232.82698423613</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="18"/>
+        <v>179232.82698423613</v>
+      </c>
+      <c r="K101" s="14">
+        <f t="shared" ref="K101:K154" si="32">M101*$K$20</f>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M101" s="32">
         <f t="shared" si="30"/>
-        <v>179232.82698423613</v>
-      </c>
-      <c r="E101" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N101" s="23">
         <f t="shared" si="28"/>
-        <v>179232.82698423613</v>
-      </c>
-      <c r="J101" s="14">
-        <f t="shared" si="17"/>
-        <v>179232.82698423613</v>
-      </c>
-      <c r="K101" s="14">
-        <f t="shared" ref="K101:K154" si="31">M101*$K$20</f>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M101" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N101" s="23">
-        <f t="shared" si="27"/>
         <v>151464.68853464862</v>
       </c>
     </row>
@@ -4233,19 +4311,19 @@
         <v>125000</v>
       </c>
       <c r="C102" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>179830.26974085026</v>
       </c>
       <c r="E102" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>179830.26974085026</v>
       </c>
       <c r="J102" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>179830.26974085026</v>
       </c>
       <c r="K102" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>27768.138449587495</v>
       </c>
       <c r="M102" s="32">
@@ -4253,7 +4331,7 @@
         <v>4217945.0809499994</v>
       </c>
       <c r="N102" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>152062.13129126275</v>
       </c>
     </row>
@@ -4265,27 +4343,27 @@
         <v>125000</v>
       </c>
       <c r="C103" s="8">
+        <f t="shared" si="31"/>
+        <v>180429.70397331976</v>
+      </c>
+      <c r="E103" s="8">
+        <f t="shared" si="29"/>
+        <v>180429.70397331976</v>
+      </c>
+      <c r="J103" s="14">
+        <f t="shared" si="18"/>
+        <v>180429.70397331976</v>
+      </c>
+      <c r="K103" s="14">
+        <f t="shared" si="32"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M103" s="32">
         <f t="shared" si="30"/>
-        <v>180429.70397331976</v>
-      </c>
-      <c r="E103" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N103" s="23">
         <f t="shared" si="28"/>
-        <v>180429.70397331976</v>
-      </c>
-      <c r="J103" s="14">
-        <f t="shared" si="17"/>
-        <v>180429.70397331976</v>
-      </c>
-      <c r="K103" s="14">
-        <f t="shared" si="31"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M103" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N103" s="23">
-        <f t="shared" si="27"/>
         <v>152661.56552373228</v>
       </c>
     </row>
@@ -4297,27 +4375,27 @@
         <v>125000</v>
       </c>
       <c r="C104" s="8">
+        <f t="shared" si="31"/>
+        <v>181031.13631989752</v>
+      </c>
+      <c r="E104" s="8">
+        <f t="shared" si="29"/>
+        <v>181031.13631989752</v>
+      </c>
+      <c r="J104" s="14">
+        <f t="shared" si="18"/>
+        <v>181031.13631989752</v>
+      </c>
+      <c r="K104" s="14">
+        <f t="shared" si="32"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M104" s="32">
         <f t="shared" si="30"/>
-        <v>181031.13631989752</v>
-      </c>
-      <c r="E104" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N104" s="23">
         <f t="shared" si="28"/>
-        <v>181031.13631989752</v>
-      </c>
-      <c r="J104" s="14">
-        <f t="shared" si="17"/>
-        <v>181031.13631989752</v>
-      </c>
-      <c r="K104" s="14">
-        <f t="shared" si="31"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M104" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N104" s="23">
-        <f t="shared" si="27"/>
         <v>153262.99787031004</v>
       </c>
     </row>
@@ -4329,27 +4407,27 @@
         <v>125000</v>
       </c>
       <c r="C105" s="8">
+        <f t="shared" si="31"/>
+        <v>181634.57344096387</v>
+      </c>
+      <c r="E105" s="8">
+        <f t="shared" si="29"/>
+        <v>181634.57344096387</v>
+      </c>
+      <c r="J105" s="14">
+        <f t="shared" si="18"/>
+        <v>181634.57344096387</v>
+      </c>
+      <c r="K105" s="14">
+        <f t="shared" si="32"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M105" s="32">
         <f t="shared" si="30"/>
-        <v>181634.57344096387</v>
-      </c>
-      <c r="E105" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N105" s="23">
         <f t="shared" si="28"/>
-        <v>181634.57344096387</v>
-      </c>
-      <c r="J105" s="14">
-        <f t="shared" si="17"/>
-        <v>181634.57344096387</v>
-      </c>
-      <c r="K105" s="14">
-        <f t="shared" si="31"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M105" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N105" s="23">
-        <f t="shared" si="27"/>
         <v>153866.43499137636</v>
       </c>
     </row>
@@ -4361,27 +4439,27 @@
         <v>125000</v>
       </c>
       <c r="C106" s="8">
+        <f t="shared" si="31"/>
+        <v>182240.02201910043</v>
+      </c>
+      <c r="E106" s="8">
+        <f t="shared" si="29"/>
+        <v>182240.02201910043</v>
+      </c>
+      <c r="J106" s="14">
+        <f t="shared" si="18"/>
+        <v>182240.02201910043</v>
+      </c>
+      <c r="K106" s="14">
+        <f t="shared" si="32"/>
+        <v>27768.138449587495</v>
+      </c>
+      <c r="M106" s="32">
         <f t="shared" si="30"/>
-        <v>182240.02201910043</v>
-      </c>
-      <c r="E106" s="8">
+        <v>4217945.0809499994</v>
+      </c>
+      <c r="N106" s="23">
         <f t="shared" si="28"/>
-        <v>182240.02201910043</v>
-      </c>
-      <c r="J106" s="14">
-        <f t="shared" si="17"/>
-        <v>182240.02201910043</v>
-      </c>
-      <c r="K106" s="14">
-        <f t="shared" si="31"/>
-        <v>27768.138449587495</v>
-      </c>
-      <c r="M106" s="32">
-        <f t="shared" si="29"/>
-        <v>4217945.0809499994</v>
-      </c>
-      <c r="N106" s="23">
-        <f t="shared" si="27"/>
         <v>154471.88356951292</v>
       </c>
     </row>
@@ -4393,19 +4471,19 @@
         <v>125000</v>
       </c>
       <c r="C107" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>182847.48875916412</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>182847.48875916412</v>
       </c>
       <c r="J107" s="14">
-        <f t="shared" ref="J107:J170" si="32">E107</f>
+        <f t="shared" ref="J107:J170" si="33">E107</f>
         <v>182847.48875916412</v>
       </c>
       <c r="K107" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>33291.38456142768</v>
       </c>
       <c r="M107" s="32">
@@ -4413,7 +4491,7 @@
         <v>5056919.1738877492</v>
       </c>
       <c r="N107" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>149556.10419773642</v>
       </c>
     </row>
@@ -4425,27 +4503,27 @@
         <v>125000</v>
       </c>
       <c r="C108" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>183456.98038836135</v>
       </c>
       <c r="E108" s="8">
+        <f t="shared" si="29"/>
+        <v>183456.98038836135</v>
+      </c>
+      <c r="J108" s="14">
+        <f t="shared" si="33"/>
+        <v>183456.98038836135</v>
+      </c>
+      <c r="K108" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M108" s="32">
+        <f t="shared" ref="M108:M118" si="34">$M$106+$K$14</f>
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N108" s="23">
         <f t="shared" si="28"/>
-        <v>183456.98038836135</v>
-      </c>
-      <c r="J108" s="14">
-        <f t="shared" si="32"/>
-        <v>183456.98038836135</v>
-      </c>
-      <c r="K108" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M108" s="32">
-        <f t="shared" ref="M108:M118" si="33">$M$106+$K$14</f>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N108" s="23">
-        <f t="shared" si="27"/>
         <v>150165.59582693368</v>
       </c>
     </row>
@@ -4457,19 +4535,19 @@
         <v>125000</v>
       </c>
       <c r="C109" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>184068.50365632257</v>
       </c>
       <c r="E109" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>184068.50365632257</v>
       </c>
       <c r="J109" s="14">
+        <f t="shared" si="33"/>
+        <v>184068.50365632257</v>
+      </c>
+      <c r="K109" s="14">
         <f t="shared" si="32"/>
-        <v>184068.50365632257</v>
-      </c>
-      <c r="K109" s="14">
-        <f t="shared" si="31"/>
         <v>33291.38456142768</v>
       </c>
       <c r="M109" s="32">
@@ -4477,7 +4555,7 @@
         <v>5056919.1738877492</v>
       </c>
       <c r="N109" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>150777.11909489491</v>
       </c>
     </row>
@@ -4489,27 +4567,27 @@
         <v>125000</v>
       </c>
       <c r="C110" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>184682.065335177</v>
       </c>
       <c r="E110" s="8">
+        <f t="shared" si="29"/>
+        <v>184682.065335177</v>
+      </c>
+      <c r="J110" s="14">
+        <f t="shared" si="33"/>
+        <v>184682.065335177</v>
+      </c>
+      <c r="K110" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M110" s="32">
+        <f t="shared" si="34"/>
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N110" s="23">
         <f t="shared" si="28"/>
-        <v>184682.065335177</v>
-      </c>
-      <c r="J110" s="14">
-        <f t="shared" si="32"/>
-        <v>184682.065335177</v>
-      </c>
-      <c r="K110" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M110" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N110" s="23">
-        <f t="shared" si="27"/>
         <v>151390.68077374931</v>
       </c>
     </row>
@@ -4521,27 +4599,27 @@
         <v>125000</v>
       </c>
       <c r="C111" s="8">
-        <f t="shared" ref="C111:C122" si="34">C110*(1+$T$16)</f>
+        <f t="shared" ref="C111:C122" si="35">C110*(1+$T$16)</f>
         <v>185297.6722196276</v>
       </c>
       <c r="E111" s="8">
+        <f t="shared" si="29"/>
+        <v>185297.6722196276</v>
+      </c>
+      <c r="J111" s="14">
+        <f t="shared" si="33"/>
+        <v>185297.6722196276</v>
+      </c>
+      <c r="K111" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M111" s="32">
+        <f t="shared" si="34"/>
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N111" s="23">
         <f t="shared" si="28"/>
-        <v>185297.6722196276</v>
-      </c>
-      <c r="J111" s="14">
-        <f t="shared" si="32"/>
-        <v>185297.6722196276</v>
-      </c>
-      <c r="K111" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M111" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N111" s="23">
-        <f t="shared" si="27"/>
         <v>152006.2876581999</v>
       </c>
     </row>
@@ -4553,27 +4631,27 @@
         <v>125000</v>
       </c>
       <c r="C112" s="8">
+        <f t="shared" si="35"/>
+        <v>185915.33112702638</v>
+      </c>
+      <c r="E112" s="8">
+        <f t="shared" si="29"/>
+        <v>185915.33112702638</v>
+      </c>
+      <c r="J112" s="14">
+        <f t="shared" si="33"/>
+        <v>185915.33112702638</v>
+      </c>
+      <c r="K112" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M112" s="32">
         <f t="shared" si="34"/>
-        <v>185915.33112702638</v>
-      </c>
-      <c r="E112" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N112" s="23">
         <f t="shared" si="28"/>
-        <v>185915.33112702638</v>
-      </c>
-      <c r="J112" s="14">
-        <f t="shared" si="32"/>
-        <v>185915.33112702638</v>
-      </c>
-      <c r="K112" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M112" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N112" s="23">
-        <f t="shared" si="27"/>
         <v>152623.94656559872</v>
       </c>
     </row>
@@ -4585,19 +4663,19 @@
         <v>125000</v>
       </c>
       <c r="C113" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>186535.04889744983</v>
       </c>
       <c r="E113" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>186535.04889744983</v>
       </c>
       <c r="J113" s="14">
+        <f t="shared" si="33"/>
+        <v>186535.04889744983</v>
+      </c>
+      <c r="K113" s="14">
         <f t="shared" si="32"/>
-        <v>186535.04889744983</v>
-      </c>
-      <c r="K113" s="14">
-        <f t="shared" si="31"/>
         <v>33291.38456142768</v>
       </c>
       <c r="M113" s="32">
@@ -4605,7 +4683,7 @@
         <v>5056919.1738877492</v>
       </c>
       <c r="N113" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>153243.66433602216</v>
       </c>
     </row>
@@ -4617,27 +4695,27 @@
         <v>125000</v>
       </c>
       <c r="C114" s="8">
+        <f t="shared" si="35"/>
+        <v>187156.83239377468</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="29"/>
+        <v>187156.83239377468</v>
+      </c>
+      <c r="J114" s="14">
+        <f t="shared" si="33"/>
+        <v>187156.83239377468</v>
+      </c>
+      <c r="K114" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M114" s="32">
         <f t="shared" si="34"/>
-        <v>187156.83239377468</v>
-      </c>
-      <c r="E114" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N114" s="23">
         <f t="shared" si="28"/>
-        <v>187156.83239377468</v>
-      </c>
-      <c r="J114" s="14">
-        <f t="shared" si="32"/>
-        <v>187156.83239377468</v>
-      </c>
-      <c r="K114" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M114" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N114" s="23">
-        <f t="shared" si="27"/>
         <v>153865.44783234701</v>
       </c>
     </row>
@@ -4649,27 +4727,27 @@
         <v>125000</v>
       </c>
       <c r="C115" s="8">
+        <f t="shared" si="35"/>
+        <v>187780.68850175393</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="29"/>
+        <v>187780.68850175393</v>
+      </c>
+      <c r="J115" s="14">
+        <f t="shared" si="33"/>
+        <v>187780.68850175393</v>
+      </c>
+      <c r="K115" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M115" s="32">
         <f t="shared" si="34"/>
-        <v>187780.68850175393</v>
-      </c>
-      <c r="E115" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N115" s="23">
         <f t="shared" si="28"/>
-        <v>187780.68850175393</v>
-      </c>
-      <c r="J115" s="14">
-        <f t="shared" si="32"/>
-        <v>187780.68850175393</v>
-      </c>
-      <c r="K115" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M115" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N115" s="23">
-        <f t="shared" si="27"/>
         <v>154489.30394032627</v>
       </c>
     </row>
@@ -4681,27 +4759,27 @@
         <v>125000</v>
       </c>
       <c r="C116" s="8">
+        <f t="shared" si="35"/>
+        <v>188406.62413009311</v>
+      </c>
+      <c r="E116" s="8">
+        <f t="shared" si="29"/>
+        <v>188406.62413009311</v>
+      </c>
+      <c r="J116" s="14">
+        <f t="shared" si="33"/>
+        <v>188406.62413009311</v>
+      </c>
+      <c r="K116" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M116" s="32">
         <f t="shared" si="34"/>
-        <v>188406.62413009311</v>
-      </c>
-      <c r="E116" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N116" s="23">
         <f t="shared" si="28"/>
-        <v>188406.62413009311</v>
-      </c>
-      <c r="J116" s="14">
-        <f t="shared" si="32"/>
-        <v>188406.62413009311</v>
-      </c>
-      <c r="K116" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M116" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N116" s="23">
-        <f t="shared" si="27"/>
         <v>155115.23956866545</v>
       </c>
     </row>
@@ -4713,27 +4791,27 @@
         <v>125000</v>
       </c>
       <c r="C117" s="8">
+        <f t="shared" si="35"/>
+        <v>189034.64621052679</v>
+      </c>
+      <c r="E117" s="8">
+        <f t="shared" si="29"/>
+        <v>189034.64621052679</v>
+      </c>
+      <c r="J117" s="14">
+        <f t="shared" si="33"/>
+        <v>189034.64621052679</v>
+      </c>
+      <c r="K117" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M117" s="32">
         <f t="shared" si="34"/>
-        <v>189034.64621052679</v>
-      </c>
-      <c r="E117" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N117" s="23">
         <f t="shared" si="28"/>
-        <v>189034.64621052679</v>
-      </c>
-      <c r="J117" s="14">
-        <f t="shared" si="32"/>
-        <v>189034.64621052679</v>
-      </c>
-      <c r="K117" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M117" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N117" s="23">
-        <f t="shared" si="27"/>
         <v>155743.26164909912</v>
       </c>
     </row>
@@ -4745,27 +4823,27 @@
         <v>125000</v>
       </c>
       <c r="C118" s="8">
+        <f t="shared" si="35"/>
+        <v>189664.76169789521</v>
+      </c>
+      <c r="E118" s="8">
+        <f t="shared" si="29"/>
+        <v>189664.76169789521</v>
+      </c>
+      <c r="J118" s="14">
+        <f t="shared" si="33"/>
+        <v>189664.76169789521</v>
+      </c>
+      <c r="K118" s="14">
+        <f t="shared" si="32"/>
+        <v>33291.38456142768</v>
+      </c>
+      <c r="M118" s="32">
         <f t="shared" si="34"/>
-        <v>189664.76169789521</v>
-      </c>
-      <c r="E118" s="8">
+        <v>5056919.1738877492</v>
+      </c>
+      <c r="N118" s="23">
         <f t="shared" si="28"/>
-        <v>189664.76169789521</v>
-      </c>
-      <c r="J118" s="14">
-        <f t="shared" si="32"/>
-        <v>189664.76169789521</v>
-      </c>
-      <c r="K118" s="14">
-        <f t="shared" si="31"/>
-        <v>33291.38456142768</v>
-      </c>
-      <c r="M118" s="32">
-        <f t="shared" si="33"/>
-        <v>5056919.1738877492</v>
-      </c>
-      <c r="N118" s="23">
-        <f t="shared" si="27"/>
         <v>156373.37713646755</v>
       </c>
     </row>
@@ -4777,19 +4855,19 @@
         <v>125000</v>
       </c>
       <c r="C119" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>190296.97757022156</v>
       </c>
       <c r="E119" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>190296.97757022156</v>
       </c>
       <c r="J119" s="14">
+        <f t="shared" si="33"/>
+        <v>190296.97757022156</v>
+      </c>
+      <c r="K119" s="14">
         <f t="shared" si="32"/>
-        <v>190296.97757022156</v>
-      </c>
-      <c r="K119" s="14">
-        <f t="shared" si="31"/>
         <v>39035.560517741476</v>
       </c>
       <c r="M119" s="32">
@@ -4797,7 +4875,7 @@
         <v>5929452.230543009</v>
       </c>
       <c r="N119" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>151261.41705248007</v>
       </c>
     </row>
@@ -4809,27 +4887,27 @@
         <v>125000</v>
       </c>
       <c r="C120" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>190931.30082878898</v>
       </c>
       <c r="E120" s="8">
+        <f t="shared" si="29"/>
+        <v>190931.30082878898</v>
+      </c>
+      <c r="J120" s="14">
+        <f t="shared" si="33"/>
+        <v>190931.30082878898</v>
+      </c>
+      <c r="K120" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M120" s="32">
+        <f t="shared" ref="M120:M130" si="36">$M$118+$K$15</f>
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N120" s="23">
         <f t="shared" si="28"/>
-        <v>190931.30082878898</v>
-      </c>
-      <c r="J120" s="14">
-        <f t="shared" si="32"/>
-        <v>190931.30082878898</v>
-      </c>
-      <c r="K120" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M120" s="32">
-        <f t="shared" ref="M120:M130" si="35">$M$118+$K$15</f>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N120" s="23">
-        <f t="shared" si="27"/>
         <v>151895.7403110475</v>
       </c>
     </row>
@@ -4841,19 +4919,19 @@
         <v>125000</v>
       </c>
       <c r="C121" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>191567.7384982183</v>
       </c>
       <c r="E121" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>191567.7384982183</v>
       </c>
       <c r="J121" s="14">
+        <f t="shared" si="33"/>
+        <v>191567.7384982183</v>
+      </c>
+      <c r="K121" s="14">
         <f t="shared" si="32"/>
-        <v>191567.7384982183</v>
-      </c>
-      <c r="K121" s="14">
-        <f t="shared" si="31"/>
         <v>39035.560517741476</v>
       </c>
       <c r="M121" s="32">
@@ -4861,7 +4939,7 @@
         <v>5929452.230543009</v>
       </c>
       <c r="N121" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>152532.17798047682</v>
       </c>
     </row>
@@ -4873,27 +4951,27 @@
         <v>125000</v>
       </c>
       <c r="C122" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>192206.29762654571</v>
       </c>
       <c r="E122" s="8">
+        <f t="shared" si="29"/>
+        <v>192206.29762654571</v>
+      </c>
+      <c r="J122" s="14">
+        <f t="shared" si="33"/>
+        <v>192206.29762654571</v>
+      </c>
+      <c r="K122" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M122" s="32">
+        <f t="shared" si="36"/>
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N122" s="23">
         <f t="shared" si="28"/>
-        <v>192206.29762654571</v>
-      </c>
-      <c r="J122" s="14">
-        <f t="shared" si="32"/>
-        <v>192206.29762654571</v>
-      </c>
-      <c r="K122" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M122" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N122" s="23">
-        <f t="shared" si="27"/>
         <v>153170.73710880423</v>
       </c>
     </row>
@@ -4905,27 +4983,27 @@
         <v>125000</v>
       </c>
       <c r="C123" s="8">
-        <f t="shared" ref="C123:C134" si="36">C122*(1+$T$17)</f>
+        <f t="shared" ref="C123:C134" si="37">C122*(1+$T$17)</f>
         <v>192846.98528530088</v>
       </c>
       <c r="E123" s="8">
+        <f t="shared" si="29"/>
+        <v>192846.98528530088</v>
+      </c>
+      <c r="J123" s="14">
+        <f t="shared" si="33"/>
+        <v>192846.98528530088</v>
+      </c>
+      <c r="K123" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M123" s="32">
+        <f t="shared" si="36"/>
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N123" s="23">
         <f t="shared" si="28"/>
-        <v>192846.98528530088</v>
-      </c>
-      <c r="J123" s="14">
-        <f t="shared" si="32"/>
-        <v>192846.98528530088</v>
-      </c>
-      <c r="K123" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M123" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N123" s="23">
-        <f t="shared" si="27"/>
         <v>153811.42476755939</v>
       </c>
     </row>
@@ -4937,27 +5015,27 @@
         <v>125000</v>
       </c>
       <c r="C124" s="8">
+        <f t="shared" si="37"/>
+        <v>193489.80856958524</v>
+      </c>
+      <c r="E124" s="8">
+        <f t="shared" si="29"/>
+        <v>193489.80856958524</v>
+      </c>
+      <c r="J124" s="14">
+        <f t="shared" si="33"/>
+        <v>193489.80856958524</v>
+      </c>
+      <c r="K124" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M124" s="32">
         <f t="shared" si="36"/>
-        <v>193489.80856958524</v>
-      </c>
-      <c r="E124" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N124" s="23">
         <f t="shared" si="28"/>
-        <v>193489.80856958524</v>
-      </c>
-      <c r="J124" s="14">
-        <f t="shared" si="32"/>
-        <v>193489.80856958524</v>
-      </c>
-      <c r="K124" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M124" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N124" s="23">
-        <f t="shared" si="27"/>
         <v>154454.24805184375</v>
       </c>
     </row>
@@ -4969,27 +5047,27 @@
         <v>125000</v>
       </c>
       <c r="C125" s="8">
+        <f t="shared" si="37"/>
+        <v>194134.77459815054</v>
+      </c>
+      <c r="E125" s="8">
+        <f t="shared" si="29"/>
+        <v>194134.77459815054</v>
+      </c>
+      <c r="J125" s="14">
+        <f t="shared" si="33"/>
+        <v>194134.77459815054</v>
+      </c>
+      <c r="K125" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M125" s="32">
         <f t="shared" si="36"/>
-        <v>194134.77459815054</v>
-      </c>
-      <c r="E125" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N125" s="23">
         <f t="shared" si="28"/>
-        <v>194134.77459815054</v>
-      </c>
-      <c r="J125" s="14">
-        <f t="shared" si="32"/>
-        <v>194134.77459815054</v>
-      </c>
-      <c r="K125" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M125" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N125" s="23">
-        <f t="shared" si="27"/>
         <v>155099.21408040906</v>
       </c>
     </row>
@@ -5001,27 +5079,27 @@
         <v>125000</v>
       </c>
       <c r="C126" s="8">
+        <f t="shared" si="37"/>
+        <v>194781.89051347773</v>
+      </c>
+      <c r="E126" s="8">
+        <f t="shared" si="29"/>
+        <v>194781.89051347773</v>
+      </c>
+      <c r="J126" s="14">
+        <f t="shared" si="33"/>
+        <v>194781.89051347773</v>
+      </c>
+      <c r="K126" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M126" s="32">
         <f t="shared" si="36"/>
-        <v>194781.89051347773</v>
-      </c>
-      <c r="E126" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N126" s="23">
         <f t="shared" si="28"/>
-        <v>194781.89051347773</v>
-      </c>
-      <c r="J126" s="14">
-        <f t="shared" si="32"/>
-        <v>194781.89051347773</v>
-      </c>
-      <c r="K126" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M126" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N126" s="23">
-        <f t="shared" si="27"/>
         <v>155746.32999573625</v>
       </c>
     </row>
@@ -5033,27 +5111,27 @@
         <v>125000</v>
       </c>
       <c r="C127" s="8">
+        <f t="shared" si="37"/>
+        <v>195431.163481856</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="29"/>
+        <v>195431.163481856</v>
+      </c>
+      <c r="J127" s="14">
+        <f t="shared" si="33"/>
+        <v>195431.163481856</v>
+      </c>
+      <c r="K127" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M127" s="32">
         <f t="shared" si="36"/>
-        <v>195431.163481856</v>
-      </c>
-      <c r="E127" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N127" s="23">
         <f t="shared" si="28"/>
-        <v>195431.163481856</v>
-      </c>
-      <c r="J127" s="14">
-        <f t="shared" si="32"/>
-        <v>195431.163481856</v>
-      </c>
-      <c r="K127" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M127" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N127" s="23">
-        <f t="shared" si="27"/>
         <v>156395.60296411451</v>
       </c>
     </row>
@@ -5065,27 +5143,27 @@
         <v>125000</v>
       </c>
       <c r="C128" s="8">
+        <f t="shared" si="37"/>
+        <v>196082.60069346221</v>
+      </c>
+      <c r="E128" s="8">
+        <f t="shared" si="29"/>
+        <v>196082.60069346221</v>
+      </c>
+      <c r="J128" s="14">
+        <f t="shared" si="33"/>
+        <v>196082.60069346221</v>
+      </c>
+      <c r="K128" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M128" s="32">
         <f t="shared" si="36"/>
-        <v>196082.60069346221</v>
-      </c>
-      <c r="E128" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N128" s="23">
         <f t="shared" si="28"/>
-        <v>196082.60069346221</v>
-      </c>
-      <c r="J128" s="14">
-        <f t="shared" si="32"/>
-        <v>196082.60069346221</v>
-      </c>
-      <c r="K128" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M128" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N128" s="23">
-        <f t="shared" si="27"/>
         <v>157047.04017572073</v>
       </c>
     </row>
@@ -5097,27 +5175,27 @@
         <v>125000</v>
       </c>
       <c r="C129" s="8">
+        <f t="shared" si="37"/>
+        <v>196736.20936244042</v>
+      </c>
+      <c r="E129" s="8">
+        <f t="shared" si="29"/>
+        <v>196736.20936244042</v>
+      </c>
+      <c r="J129" s="14">
+        <f t="shared" si="33"/>
+        <v>196736.20936244042</v>
+      </c>
+      <c r="K129" s="14">
+        <f t="shared" si="32"/>
+        <v>39035.560517741476</v>
+      </c>
+      <c r="M129" s="32">
         <f t="shared" si="36"/>
-        <v>196736.20936244042</v>
-      </c>
-      <c r="E129" s="8">
+        <v>5929452.230543009</v>
+      </c>
+      <c r="N129" s="23">
         <f t="shared" si="28"/>
-        <v>196736.20936244042</v>
-      </c>
-      <c r="J129" s="14">
-        <f t="shared" si="32"/>
-        <v>196736.20936244042</v>
-      </c>
-      <c r="K129" s="14">
-        <f t="shared" si="31"/>
-        <v>39035.560517741476</v>
-      </c>
-      <c r="M129" s="32">
-        <f t="shared" si="35"/>
-        <v>5929452.230543009</v>
-      </c>
-      <c r="N129" s="23">
-        <f t="shared" si="27"/>
         <v>157700.64884469894</v>
       </c>
     </row>
@@ -5129,15 +5207,15 @@
         <v>125000</v>
       </c>
       <c r="C130" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>197391.99672698192</v>
       </c>
       <c r="E130" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>197391.99672698192</v>
       </c>
       <c r="J130" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>197391.99672698192</v>
       </c>
       <c r="K130" s="14">
@@ -5145,11 +5223,11 @@
         <v>39035.560517741476</v>
       </c>
       <c r="M130" s="32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5929452.230543009</v>
       </c>
       <c r="N130" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>158356.43620924043</v>
       </c>
     </row>
@@ -5161,15 +5239,15 @@
         <v>125000</v>
       </c>
       <c r="C131" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>198049.97004940521</v>
       </c>
       <c r="E131" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>198049.97004940521</v>
       </c>
       <c r="J131" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>198049.97004940521</v>
       </c>
       <c r="K131" s="14">
@@ -5181,7 +5259,7 @@
         <v>6836886.6094644796</v>
       </c>
       <c r="N131" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>153040.46653709738</v>
       </c>
     </row>
@@ -5193,27 +5271,27 @@
         <v>125000</v>
       </c>
       <c r="C132" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>198710.13661623659</v>
       </c>
       <c r="E132" s="8">
+        <f t="shared" si="29"/>
+        <v>198710.13661623659</v>
+      </c>
+      <c r="J132" s="14">
+        <f t="shared" si="33"/>
+        <v>198710.13661623659</v>
+      </c>
+      <c r="K132" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M132" s="32">
+        <f t="shared" ref="M132:M142" si="38">$M$130+$K$16</f>
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N132" s="23">
         <f t="shared" si="28"/>
-        <v>198710.13661623659</v>
-      </c>
-      <c r="J132" s="14">
-        <f t="shared" si="32"/>
-        <v>198710.13661623659</v>
-      </c>
-      <c r="K132" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M132" s="32">
-        <f t="shared" ref="M132:M142" si="37">$M$130+$K$16</f>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N132" s="23">
-        <f t="shared" si="27"/>
         <v>153700.63310392876</v>
       </c>
     </row>
@@ -5225,27 +5303,27 @@
         <v>125000</v>
       </c>
       <c r="C133" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>199372.50373829072</v>
       </c>
       <c r="E133" s="8">
+        <f t="shared" si="29"/>
+        <v>199372.50373829072</v>
+      </c>
+      <c r="J133" s="14">
+        <f t="shared" si="33"/>
+        <v>199372.50373829072</v>
+      </c>
+      <c r="K133" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M133" s="32">
+        <f t="shared" si="38"/>
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N133" s="23">
         <f t="shared" si="28"/>
-        <v>199372.50373829072</v>
-      </c>
-      <c r="J133" s="14">
-        <f t="shared" si="32"/>
-        <v>199372.50373829072</v>
-      </c>
-      <c r="K133" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M133" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N133" s="23">
-        <f t="shared" si="27"/>
         <v>154363.00022598289</v>
       </c>
     </row>
@@ -5257,27 +5335,27 @@
         <v>125000</v>
       </c>
       <c r="C134" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>200037.07875075171</v>
       </c>
       <c r="E134" s="8">
+        <f t="shared" si="29"/>
+        <v>200037.07875075171</v>
+      </c>
+      <c r="J134" s="14">
+        <f t="shared" si="33"/>
+        <v>200037.07875075171</v>
+      </c>
+      <c r="K134" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M134" s="32">
+        <f t="shared" si="38"/>
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N134" s="23">
         <f t="shared" si="28"/>
-        <v>200037.07875075171</v>
-      </c>
-      <c r="J134" s="14">
-        <f t="shared" si="32"/>
-        <v>200037.07875075171</v>
-      </c>
-      <c r="K134" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M134" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N134" s="23">
-        <f t="shared" si="27"/>
         <v>155027.57523844388</v>
       </c>
     </row>
@@ -5289,27 +5367,27 @@
         <v>125000</v>
       </c>
       <c r="C135" s="8">
-        <f t="shared" ref="C135:C146" si="38">C134*(1+$T$18)</f>
+        <f t="shared" ref="C135:C146" si="39">C134*(1+$T$18)</f>
         <v>200703.86901325424</v>
       </c>
       <c r="E135" s="8">
+        <f t="shared" si="29"/>
+        <v>200703.86901325424</v>
+      </c>
+      <c r="J135" s="14">
+        <f t="shared" si="33"/>
+        <v>200703.86901325424</v>
+      </c>
+      <c r="K135" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M135" s="32">
+        <f t="shared" si="38"/>
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N135" s="23">
         <f t="shared" si="28"/>
-        <v>200703.86901325424</v>
-      </c>
-      <c r="J135" s="14">
-        <f t="shared" si="32"/>
-        <v>200703.86901325424</v>
-      </c>
-      <c r="K135" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M135" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N135" s="23">
-        <f t="shared" si="27"/>
         <v>155694.36550094641</v>
       </c>
     </row>
@@ -5321,27 +5399,27 @@
         <v>125000</v>
       </c>
       <c r="C136" s="8">
+        <f t="shared" si="39"/>
+        <v>201372.8819099651</v>
+      </c>
+      <c r="E136" s="8">
+        <f t="shared" si="29"/>
+        <v>201372.8819099651</v>
+      </c>
+      <c r="J136" s="14">
+        <f t="shared" si="33"/>
+        <v>201372.8819099651</v>
+      </c>
+      <c r="K136" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M136" s="32">
         <f t="shared" si="38"/>
-        <v>201372.8819099651</v>
-      </c>
-      <c r="E136" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N136" s="23">
         <f t="shared" si="28"/>
-        <v>201372.8819099651</v>
-      </c>
-      <c r="J136" s="14">
-        <f t="shared" si="32"/>
-        <v>201372.8819099651</v>
-      </c>
-      <c r="K136" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M136" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N136" s="23">
-        <f t="shared" si="27"/>
         <v>156363.37839765727</v>
       </c>
     </row>
@@ -5353,27 +5431,27 @@
         <v>125000</v>
       </c>
       <c r="C137" s="8">
+        <f t="shared" si="39"/>
+        <v>202044.12484966501</v>
+      </c>
+      <c r="E137" s="8">
+        <f t="shared" si="29"/>
+        <v>202044.12484966501</v>
+      </c>
+      <c r="J137" s="14">
+        <f t="shared" si="33"/>
+        <v>202044.12484966501</v>
+      </c>
+      <c r="K137" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M137" s="32">
         <f t="shared" si="38"/>
-        <v>202044.12484966501</v>
-      </c>
-      <c r="E137" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N137" s="23">
         <f t="shared" si="28"/>
-        <v>202044.12484966501</v>
-      </c>
-      <c r="J137" s="14">
-        <f t="shared" si="32"/>
-        <v>202044.12484966501</v>
-      </c>
-      <c r="K137" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M137" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N137" s="23">
-        <f t="shared" si="27"/>
         <v>157034.62133735718</v>
       </c>
     </row>
@@ -5385,27 +5463,27 @@
         <v>125000</v>
       </c>
       <c r="C138" s="8">
+        <f t="shared" si="39"/>
+        <v>202717.60526583059</v>
+      </c>
+      <c r="E138" s="8">
+        <f t="shared" si="29"/>
+        <v>202717.60526583059</v>
+      </c>
+      <c r="J138" s="14">
+        <f t="shared" si="33"/>
+        <v>202717.60526583059</v>
+      </c>
+      <c r="K138" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M138" s="32">
         <f t="shared" si="38"/>
-        <v>202717.60526583059</v>
-      </c>
-      <c r="E138" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N138" s="23">
         <f t="shared" si="28"/>
-        <v>202717.60526583059</v>
-      </c>
-      <c r="J138" s="14">
-        <f t="shared" si="32"/>
-        <v>202717.60526583059</v>
-      </c>
-      <c r="K138" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M138" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N138" s="23">
-        <f t="shared" si="27"/>
         <v>157708.10175352276</v>
       </c>
     </row>
@@ -5417,27 +5495,27 @@
         <v>125000</v>
       </c>
       <c r="C139" s="8">
+        <f t="shared" si="39"/>
+        <v>203393.3306167167</v>
+      </c>
+      <c r="E139" s="8">
+        <f t="shared" si="29"/>
+        <v>203393.3306167167</v>
+      </c>
+      <c r="J139" s="14">
+        <f t="shared" si="33"/>
+        <v>203393.3306167167</v>
+      </c>
+      <c r="K139" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M139" s="32">
         <f t="shared" si="38"/>
-        <v>203393.3306167167</v>
-      </c>
-      <c r="E139" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N139" s="23">
         <f t="shared" si="28"/>
-        <v>203393.3306167167</v>
-      </c>
-      <c r="J139" s="14">
-        <f t="shared" si="32"/>
-        <v>203393.3306167167</v>
-      </c>
-      <c r="K139" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M139" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N139" s="23">
-        <f t="shared" si="27"/>
         <v>158383.82710440888</v>
       </c>
     </row>
@@ -5449,27 +5527,27 @@
         <v>125000</v>
       </c>
       <c r="C140" s="8">
+        <f t="shared" si="39"/>
+        <v>204071.3083854391</v>
+      </c>
+      <c r="E140" s="8">
+        <f t="shared" si="29"/>
+        <v>204071.3083854391</v>
+      </c>
+      <c r="J140" s="14">
+        <f t="shared" si="33"/>
+        <v>204071.3083854391</v>
+      </c>
+      <c r="K140" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M140" s="32">
         <f t="shared" si="38"/>
-        <v>204071.3083854391</v>
-      </c>
-      <c r="E140" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N140" s="23">
         <f t="shared" si="28"/>
-        <v>204071.3083854391</v>
-      </c>
-      <c r="J140" s="14">
-        <f t="shared" si="32"/>
-        <v>204071.3083854391</v>
-      </c>
-      <c r="K140" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M140" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N140" s="23">
-        <f t="shared" si="27"/>
         <v>159061.80487313127</v>
       </c>
     </row>
@@ -5481,27 +5559,27 @@
         <v>125000</v>
       </c>
       <c r="C141" s="8">
+        <f t="shared" si="39"/>
+        <v>204751.54608005725</v>
+      </c>
+      <c r="E141" s="8">
+        <f t="shared" si="29"/>
+        <v>204751.54608005725</v>
+      </c>
+      <c r="J141" s="14">
+        <f t="shared" si="33"/>
+        <v>204751.54608005725</v>
+      </c>
+      <c r="K141" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M141" s="32">
         <f t="shared" si="38"/>
-        <v>204751.54608005725</v>
-      </c>
-      <c r="E141" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N141" s="23">
         <f t="shared" si="28"/>
-        <v>204751.54608005725</v>
-      </c>
-      <c r="J141" s="14">
-        <f t="shared" si="32"/>
-        <v>204751.54608005725</v>
-      </c>
-      <c r="K141" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M141" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N141" s="23">
-        <f t="shared" si="27"/>
         <v>159742.04256774942</v>
       </c>
     </row>
@@ -5513,27 +5591,27 @@
         <v>125000</v>
       </c>
       <c r="C142" s="8">
+        <f t="shared" si="39"/>
+        <v>205434.05123365746</v>
+      </c>
+      <c r="E142" s="8">
+        <f t="shared" si="29"/>
+        <v>205434.05123365746</v>
+      </c>
+      <c r="J142" s="14">
+        <f t="shared" si="33"/>
+        <v>205434.05123365746</v>
+      </c>
+      <c r="K142" s="14">
+        <f t="shared" si="32"/>
+        <v>45009.503512307827</v>
+      </c>
+      <c r="M142" s="32">
         <f t="shared" si="38"/>
-        <v>205434.05123365746</v>
-      </c>
-      <c r="E142" s="8">
+        <v>6836886.6094644796</v>
+      </c>
+      <c r="N142" s="23">
         <f t="shared" si="28"/>
-        <v>205434.05123365746</v>
-      </c>
-      <c r="J142" s="14">
-        <f t="shared" si="32"/>
-        <v>205434.05123365746</v>
-      </c>
-      <c r="K142" s="14">
-        <f t="shared" si="31"/>
-        <v>45009.503512307827</v>
-      </c>
-      <c r="M142" s="32">
-        <f t="shared" si="37"/>
-        <v>6836886.6094644796</v>
-      </c>
-      <c r="N142" s="23">
-        <f t="shared" si="27"/>
         <v>160424.54772134963</v>
       </c>
     </row>
@@ -5545,19 +5623,19 @@
         <v>125000</v>
       </c>
       <c r="C143" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>206118.83140443632</v>
       </c>
       <c r="E143" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>206118.83140443632</v>
       </c>
       <c r="J143" s="14">
+        <f t="shared" si="33"/>
+        <v>206118.83140443632</v>
+      </c>
+      <c r="K143" s="14">
         <f t="shared" si="32"/>
-        <v>206118.83140443632</v>
-      </c>
-      <c r="K143" s="14">
-        <f t="shared" si="31"/>
         <v>51222.404226656829</v>
       </c>
       <c r="M143" s="32">
@@ -5565,7 +5643,7 @@
         <v>7780618.3635428092</v>
       </c>
       <c r="N143" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>154896.42717777949</v>
       </c>
     </row>
@@ -5577,27 +5655,27 @@
         <v>125000</v>
       </c>
       <c r="C144" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>206805.89417578446</v>
       </c>
       <c r="E144" s="8">
+        <f t="shared" si="29"/>
+        <v>206805.89417578446</v>
+      </c>
+      <c r="J144" s="14">
+        <f t="shared" si="33"/>
+        <v>206805.89417578446</v>
+      </c>
+      <c r="K144" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M144" s="32">
+        <f t="shared" ref="M144:M153" si="40">$M$142+$K$17</f>
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N144" s="23">
         <f t="shared" si="28"/>
-        <v>206805.89417578446</v>
-      </c>
-      <c r="J144" s="14">
-        <f t="shared" si="32"/>
-        <v>206805.89417578446</v>
-      </c>
-      <c r="K144" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M144" s="32">
-        <f t="shared" ref="M144:M153" si="39">$M$142+$K$17</f>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N144" s="23">
-        <f t="shared" si="27"/>
         <v>155583.48994912763</v>
       </c>
     </row>
@@ -5609,27 +5687,27 @@
         <v>125000</v>
       </c>
       <c r="C145" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>207495.24715637043</v>
       </c>
       <c r="E145" s="8">
+        <f t="shared" si="29"/>
+        <v>207495.24715637043</v>
+      </c>
+      <c r="J145" s="14">
+        <f t="shared" si="33"/>
+        <v>207495.24715637043</v>
+      </c>
+      <c r="K145" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M145" s="32">
+        <f t="shared" si="40"/>
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N145" s="23">
         <f t="shared" si="28"/>
-        <v>207495.24715637043</v>
-      </c>
-      <c r="J145" s="14">
-        <f t="shared" si="32"/>
-        <v>207495.24715637043</v>
-      </c>
-      <c r="K145" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M145" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N145" s="23">
-        <f t="shared" si="27"/>
         <v>156272.8429297136</v>
       </c>
     </row>
@@ -5641,27 +5719,27 @@
         <v>125000</v>
       </c>
       <c r="C146" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>208186.89798022501</v>
       </c>
       <c r="E146" s="8">
+        <f t="shared" si="29"/>
+        <v>208186.89798022501</v>
+      </c>
+      <c r="J146" s="14">
+        <f t="shared" si="33"/>
+        <v>208186.89798022501</v>
+      </c>
+      <c r="K146" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M146" s="32">
+        <f t="shared" si="40"/>
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N146" s="23">
         <f t="shared" si="28"/>
-        <v>208186.89798022501</v>
-      </c>
-      <c r="J146" s="14">
-        <f t="shared" si="32"/>
-        <v>208186.89798022501</v>
-      </c>
-      <c r="K146" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M146" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N146" s="23">
-        <f t="shared" si="27"/>
         <v>156964.49375356818</v>
       </c>
     </row>
@@ -5673,27 +5751,27 @@
         <v>125000</v>
       </c>
       <c r="C147" s="8">
-        <f t="shared" ref="C147:C158" si="40">C146*(1+$T$19)</f>
+        <f t="shared" ref="C147:C158" si="41">C146*(1+$T$19)</f>
         <v>208880.85430682579</v>
       </c>
       <c r="E147" s="8">
+        <f t="shared" si="29"/>
+        <v>208880.85430682579</v>
+      </c>
+      <c r="J147" s="14">
+        <f t="shared" si="33"/>
+        <v>208880.85430682579</v>
+      </c>
+      <c r="K147" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M147" s="32">
+        <f t="shared" si="40"/>
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N147" s="23">
         <f t="shared" si="28"/>
-        <v>208880.85430682579</v>
-      </c>
-      <c r="J147" s="14">
-        <f t="shared" si="32"/>
-        <v>208880.85430682579</v>
-      </c>
-      <c r="K147" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M147" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N147" s="23">
-        <f t="shared" si="27"/>
         <v>157658.45008016896</v>
       </c>
     </row>
@@ -5705,23 +5783,23 @@
         <v>125000</v>
       </c>
       <c r="C148" s="8">
+        <f t="shared" si="41"/>
+        <v>209577.12382118189</v>
+      </c>
+      <c r="E148" s="8">
+        <f t="shared" si="29"/>
+        <v>209577.12382118189</v>
+      </c>
+      <c r="J148" s="14">
+        <f t="shared" si="33"/>
+        <v>209577.12382118189</v>
+      </c>
+      <c r="K148" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M148" s="32">
         <f t="shared" si="40"/>
-        <v>209577.12382118189</v>
-      </c>
-      <c r="E148" s="8">
-        <f t="shared" si="28"/>
-        <v>209577.12382118189</v>
-      </c>
-      <c r="J148" s="14">
-        <f t="shared" si="32"/>
-        <v>209577.12382118189</v>
-      </c>
-      <c r="K148" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M148" s="32">
-        <f t="shared" si="39"/>
         <v>7780618.3635428092</v>
       </c>
       <c r="N148" s="23">
@@ -5737,27 +5815,27 @@
         <v>125000</v>
       </c>
       <c r="C149" s="8">
+        <f t="shared" si="41"/>
+        <v>210275.71423391916</v>
+      </c>
+      <c r="E149" s="8">
+        <f t="shared" si="29"/>
+        <v>210275.71423391916</v>
+      </c>
+      <c r="J149" s="14">
+        <f t="shared" si="33"/>
+        <v>210275.71423391916</v>
+      </c>
+      <c r="K149" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M149" s="32">
         <f t="shared" si="40"/>
-        <v>210275.71423391916</v>
-      </c>
-      <c r="E149" s="8">
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N149" s="23">
         <f t="shared" si="28"/>
-        <v>210275.71423391916</v>
-      </c>
-      <c r="J149" s="14">
-        <f t="shared" si="32"/>
-        <v>210275.71423391916</v>
-      </c>
-      <c r="K149" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M149" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N149" s="23">
-        <f t="shared" si="27"/>
         <v>159053.31000726233</v>
       </c>
     </row>
@@ -5769,27 +5847,27 @@
         <v>125000</v>
       </c>
       <c r="C150" s="8">
+        <f t="shared" si="41"/>
+        <v>210976.63328136559</v>
+      </c>
+      <c r="E150" s="8">
+        <f t="shared" si="29"/>
+        <v>210976.63328136559</v>
+      </c>
+      <c r="J150" s="14">
+        <f t="shared" si="33"/>
+        <v>210976.63328136559</v>
+      </c>
+      <c r="K150" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M150" s="32">
         <f t="shared" si="40"/>
-        <v>210976.63328136559</v>
-      </c>
-      <c r="E150" s="8">
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N150" s="23">
         <f t="shared" si="28"/>
-        <v>210976.63328136559</v>
-      </c>
-      <c r="J150" s="14">
-        <f t="shared" si="32"/>
-        <v>210976.63328136559</v>
-      </c>
-      <c r="K150" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M150" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N150" s="23">
-        <f t="shared" si="27"/>
         <v>159754.22905470876</v>
       </c>
     </row>
@@ -5801,27 +5879,27 @@
         <v>125000</v>
       </c>
       <c r="C151" s="8">
+        <f t="shared" si="41"/>
+        <v>211679.88872563682</v>
+      </c>
+      <c r="E151" s="8">
+        <f t="shared" si="29"/>
+        <v>211679.88872563682</v>
+      </c>
+      <c r="J151" s="14">
+        <f t="shared" si="33"/>
+        <v>211679.88872563682</v>
+      </c>
+      <c r="K151" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M151" s="32">
         <f t="shared" si="40"/>
-        <v>211679.88872563682</v>
-      </c>
-      <c r="E151" s="8">
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N151" s="23">
         <f t="shared" si="28"/>
-        <v>211679.88872563682</v>
-      </c>
-      <c r="J151" s="14">
-        <f t="shared" si="32"/>
-        <v>211679.88872563682</v>
-      </c>
-      <c r="K151" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M151" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N151" s="23">
-        <f t="shared" si="27"/>
         <v>160457.48449897999</v>
       </c>
     </row>
@@ -5833,27 +5911,27 @@
         <v>125000</v>
       </c>
       <c r="C152" s="8">
+        <f t="shared" si="41"/>
+        <v>212385.4883547223</v>
+      </c>
+      <c r="E152" s="8">
+        <f t="shared" si="29"/>
+        <v>212385.4883547223</v>
+      </c>
+      <c r="J152" s="14">
+        <f t="shared" si="33"/>
+        <v>212385.4883547223</v>
+      </c>
+      <c r="K152" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M152" s="32">
         <f t="shared" si="40"/>
-        <v>212385.4883547223</v>
-      </c>
-      <c r="E152" s="8">
+        <v>7780618.3635428092</v>
+      </c>
+      <c r="N152" s="23">
         <f t="shared" si="28"/>
-        <v>212385.4883547223</v>
-      </c>
-      <c r="J152" s="14">
-        <f t="shared" si="32"/>
-        <v>212385.4883547223</v>
-      </c>
-      <c r="K152" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M152" s="32">
-        <f t="shared" si="39"/>
-        <v>7780618.3635428092</v>
-      </c>
-      <c r="N152" s="23">
-        <f t="shared" si="27"/>
         <v>161163.08412806547</v>
       </c>
     </row>
@@ -5865,27 +5943,27 @@
         <v>125000</v>
       </c>
       <c r="C153" s="8">
+        <f t="shared" si="41"/>
+        <v>213093.43998257138</v>
+      </c>
+      <c r="E153" s="8">
+        <f t="shared" si="29"/>
+        <v>213093.43998257138</v>
+      </c>
+      <c r="J153" s="14">
+        <f t="shared" si="33"/>
+        <v>213093.43998257138</v>
+      </c>
+      <c r="K153" s="14">
+        <f t="shared" si="32"/>
+        <v>51222.404226656829</v>
+      </c>
+      <c r="M153" s="32">
         <f t="shared" si="40"/>
-        <v>213093.43998257138</v>
-      </c>
-      <c r="E153" s="8">
-        <f t="shared" si="28"/>
-        <v>213093.43998257138</v>
-      </c>
-      <c r="J153" s="14">
-        <f t="shared" si="32"/>
-        <v>213093.43998257138</v>
-      </c>
-      <c r="K153" s="14">
-        <f t="shared" si="31"/>
-        <v>51222.404226656829</v>
-      </c>
-      <c r="M153" s="32">
-        <f t="shared" si="39"/>
         <v>7780618.3635428092</v>
       </c>
       <c r="N153" s="23">
-        <f t="shared" ref="N153:N216" si="41">J153-K153</f>
+        <f t="shared" ref="N153:N216" si="42">J153-K153</f>
         <v>161871.03575591455</v>
       </c>
     </row>
@@ -5897,19 +5975,19 @@
         <v>125000</v>
       </c>
       <c r="C154" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>213803.75144917995</v>
       </c>
       <c r="E154" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>213803.75144917995</v>
       </c>
       <c r="J154" s="14">
+        <f t="shared" si="33"/>
+        <v>213803.75144917995</v>
+      </c>
+      <c r="K154" s="14">
         <f t="shared" si="32"/>
-        <v>213803.75144917995</v>
-      </c>
-      <c r="K154" s="14">
-        <f t="shared" si="31"/>
         <v>51222.404226656829</v>
       </c>
       <c r="M154" s="32">
@@ -5917,7 +5995,7 @@
         <v>7780618.3635428092</v>
       </c>
       <c r="N154" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>162581.34722252312</v>
       </c>
     </row>
@@ -5929,12 +6007,12 @@
         <v>125000</v>
       </c>
       <c r="C155" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>214516.43062067725</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="18">
-        <f t="shared" ref="E155:E218" si="42">C155-D155</f>
+        <f t="shared" ref="E155:E218" si="43">C155-D155</f>
         <v>214516.43062067725</v>
       </c>
       <c r="F155" s="16"/>
@@ -5942,7 +6020,7 @@
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
       <c r="J155" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>214516.43062067725</v>
       </c>
       <c r="K155" s="15">
@@ -5954,7 +6032,7 @@
       </c>
       <c r="M155" s="16"/>
       <c r="N155" s="30">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>120526.68600554045</v>
       </c>
       <c r="O155" s="16"/>
@@ -5969,15 +6047,15 @@
         <v>125000</v>
       </c>
       <c r="C156" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>215231.48538941285</v>
       </c>
       <c r="E156" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>215231.48538941285</v>
       </c>
       <c r="J156" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>215231.48538941285</v>
       </c>
       <c r="K156" s="14">
@@ -5985,7 +6063,7 @@
         <v>93989.744615136791</v>
       </c>
       <c r="N156" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>121241.74077427606</v>
       </c>
     </row>
@@ -5997,23 +6075,23 @@
         <v>125000</v>
       </c>
       <c r="C157" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>215948.92367404423</v>
       </c>
       <c r="E157" s="8">
+        <f t="shared" si="43"/>
+        <v>215948.92367404423</v>
+      </c>
+      <c r="J157" s="14">
+        <f t="shared" si="33"/>
+        <v>215948.92367404423</v>
+      </c>
+      <c r="K157" s="14">
+        <f t="shared" ref="K157:K220" si="44">$K$155</f>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N157" s="23">
         <f t="shared" si="42"/>
-        <v>215948.92367404423</v>
-      </c>
-      <c r="J157" s="14">
-        <f t="shared" si="32"/>
-        <v>215948.92367404423</v>
-      </c>
-      <c r="K157" s="14">
-        <f t="shared" ref="K157:K220" si="43">$K$155</f>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N157" s="23">
-        <f t="shared" si="41"/>
         <v>121959.17905890744</v>
       </c>
     </row>
@@ -6025,23 +6103,23 @@
         <v>125000</v>
       </c>
       <c r="C158" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>216668.75341962438</v>
       </c>
       <c r="E158" s="8">
+        <f t="shared" si="43"/>
+        <v>216668.75341962438</v>
+      </c>
+      <c r="J158" s="14">
+        <f t="shared" si="33"/>
+        <v>216668.75341962438</v>
+      </c>
+      <c r="K158" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N158" s="23">
         <f t="shared" si="42"/>
-        <v>216668.75341962438</v>
-      </c>
-      <c r="J158" s="14">
-        <f t="shared" si="32"/>
-        <v>216668.75341962438</v>
-      </c>
-      <c r="K158" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N158" s="23">
-        <f t="shared" si="41"/>
         <v>122679.00880448759</v>
       </c>
     </row>
@@ -6053,23 +6131,23 @@
         <v>125000</v>
       </c>
       <c r="C159" s="8">
-        <f t="shared" ref="C159:C170" si="44">C158*(1+$T$20)</f>
+        <f t="shared" ref="C159:C170" si="45">C158*(1+$T$20)</f>
         <v>217390.98259768981</v>
       </c>
       <c r="E159" s="8">
+        <f t="shared" si="43"/>
+        <v>217390.98259768981</v>
+      </c>
+      <c r="J159" s="14">
+        <f t="shared" si="33"/>
+        <v>217390.98259768981</v>
+      </c>
+      <c r="K159" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N159" s="23">
         <f t="shared" si="42"/>
-        <v>217390.98259768981</v>
-      </c>
-      <c r="J159" s="14">
-        <f t="shared" si="32"/>
-        <v>217390.98259768981</v>
-      </c>
-      <c r="K159" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N159" s="23">
-        <f t="shared" si="41"/>
         <v>123401.23798255302</v>
       </c>
     </row>
@@ -6081,23 +6159,23 @@
         <v>125000</v>
       </c>
       <c r="C160" s="8">
+        <f t="shared" si="45"/>
+        <v>218115.61920634878</v>
+      </c>
+      <c r="E160" s="8">
+        <f t="shared" si="43"/>
+        <v>218115.61920634878</v>
+      </c>
+      <c r="J160" s="14">
+        <f t="shared" si="33"/>
+        <v>218115.61920634878</v>
+      </c>
+      <c r="K160" s="14">
         <f t="shared" si="44"/>
-        <v>218115.61920634878</v>
-      </c>
-      <c r="E160" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N160" s="23">
         <f t="shared" si="42"/>
-        <v>218115.61920634878</v>
-      </c>
-      <c r="J160" s="14">
-        <f t="shared" si="32"/>
-        <v>218115.61920634878</v>
-      </c>
-      <c r="K160" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N160" s="23">
-        <f t="shared" si="41"/>
         <v>124125.87459121199</v>
       </c>
     </row>
@@ -6109,23 +6187,23 @@
         <v>125000</v>
       </c>
       <c r="C161" s="8">
+        <f t="shared" si="45"/>
+        <v>218842.67127036996</v>
+      </c>
+      <c r="E161" s="8">
+        <f t="shared" si="43"/>
+        <v>218842.67127036996</v>
+      </c>
+      <c r="J161" s="14">
+        <f t="shared" si="33"/>
+        <v>218842.67127036996</v>
+      </c>
+      <c r="K161" s="14">
         <f t="shared" si="44"/>
-        <v>218842.67127036996</v>
-      </c>
-      <c r="E161" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N161" s="23">
         <f t="shared" si="42"/>
-        <v>218842.67127036996</v>
-      </c>
-      <c r="J161" s="14">
-        <f t="shared" si="32"/>
-        <v>218842.67127036996</v>
-      </c>
-      <c r="K161" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N161" s="23">
-        <f t="shared" si="41"/>
         <v>124852.92665523317</v>
       </c>
     </row>
@@ -6137,23 +6215,23 @@
         <v>125000</v>
       </c>
       <c r="C162" s="8">
+        <f t="shared" si="45"/>
+        <v>219572.1468412712</v>
+      </c>
+      <c r="E162" s="8">
+        <f t="shared" si="43"/>
+        <v>219572.1468412712</v>
+      </c>
+      <c r="J162" s="14">
+        <f t="shared" si="33"/>
+        <v>219572.1468412712</v>
+      </c>
+      <c r="K162" s="14">
         <f t="shared" si="44"/>
-        <v>219572.1468412712</v>
-      </c>
-      <c r="E162" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N162" s="23">
         <f t="shared" si="42"/>
-        <v>219572.1468412712</v>
-      </c>
-      <c r="J162" s="14">
-        <f t="shared" si="32"/>
-        <v>219572.1468412712</v>
-      </c>
-      <c r="K162" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N162" s="23">
-        <f t="shared" si="41"/>
         <v>125582.40222613441</v>
       </c>
     </row>
@@ -6165,23 +6243,23 @@
         <v>125000</v>
       </c>
       <c r="C163" s="8">
+        <f t="shared" si="45"/>
+        <v>220304.05399740877</v>
+      </c>
+      <c r="E163" s="8">
+        <f t="shared" si="43"/>
+        <v>220304.05399740877</v>
+      </c>
+      <c r="J163" s="14">
+        <f t="shared" si="33"/>
+        <v>220304.05399740877</v>
+      </c>
+      <c r="K163" s="14">
         <f t="shared" si="44"/>
-        <v>220304.05399740877</v>
-      </c>
-      <c r="E163" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N163" s="23">
         <f t="shared" si="42"/>
-        <v>220304.05399740877</v>
-      </c>
-      <c r="J163" s="14">
-        <f t="shared" si="32"/>
-        <v>220304.05399740877</v>
-      </c>
-      <c r="K163" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N163" s="23">
-        <f t="shared" si="41"/>
         <v>126314.30938227198</v>
       </c>
     </row>
@@ -6193,23 +6271,23 @@
         <v>125000</v>
       </c>
       <c r="C164" s="8">
+        <f t="shared" si="45"/>
+        <v>221038.40084406681</v>
+      </c>
+      <c r="E164" s="8">
+        <f t="shared" si="43"/>
+        <v>221038.40084406681</v>
+      </c>
+      <c r="J164" s="14">
+        <f t="shared" si="33"/>
+        <v>221038.40084406681</v>
+      </c>
+      <c r="K164" s="14">
         <f t="shared" si="44"/>
-        <v>221038.40084406681</v>
-      </c>
-      <c r="E164" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N164" s="23">
         <f t="shared" si="42"/>
-        <v>221038.40084406681</v>
-      </c>
-      <c r="J164" s="14">
-        <f t="shared" si="32"/>
-        <v>221038.40084406681</v>
-      </c>
-      <c r="K164" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N164" s="23">
-        <f t="shared" si="41"/>
         <v>127048.65622893002</v>
       </c>
     </row>
@@ -6221,23 +6299,23 @@
         <v>125000</v>
       </c>
       <c r="C165" s="8">
+        <f t="shared" si="45"/>
+        <v>221775.19551354705</v>
+      </c>
+      <c r="E165" s="8">
+        <f t="shared" si="43"/>
+        <v>221775.19551354705</v>
+      </c>
+      <c r="J165" s="14">
+        <f t="shared" si="33"/>
+        <v>221775.19551354705</v>
+      </c>
+      <c r="K165" s="14">
         <f t="shared" si="44"/>
-        <v>221775.19551354705</v>
-      </c>
-      <c r="E165" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N165" s="23">
         <f t="shared" si="42"/>
-        <v>221775.19551354705</v>
-      </c>
-      <c r="J165" s="14">
-        <f t="shared" si="32"/>
-        <v>221775.19551354705</v>
-      </c>
-      <c r="K165" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N165" s="23">
-        <f t="shared" si="41"/>
         <v>127785.45089841026</v>
       </c>
     </row>
@@ -6249,23 +6327,23 @@
         <v>125000</v>
       </c>
       <c r="C166" s="8">
+        <f t="shared" si="45"/>
+        <v>222514.44616525888</v>
+      </c>
+      <c r="E166" s="8">
+        <f t="shared" si="43"/>
+        <v>222514.44616525888</v>
+      </c>
+      <c r="J166" s="14">
+        <f t="shared" si="33"/>
+        <v>222514.44616525888</v>
+      </c>
+      <c r="K166" s="14">
         <f t="shared" si="44"/>
-        <v>222514.44616525888</v>
-      </c>
-      <c r="E166" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N166" s="23">
         <f t="shared" si="42"/>
-        <v>222514.44616525888</v>
-      </c>
-      <c r="J166" s="14">
-        <f t="shared" si="32"/>
-        <v>222514.44616525888</v>
-      </c>
-      <c r="K166" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N166" s="23">
-        <f t="shared" si="41"/>
         <v>128524.70155012209</v>
       </c>
     </row>
@@ -6277,23 +6355,23 @@
         <v>125000</v>
       </c>
       <c r="C167" s="8">
+        <f t="shared" si="45"/>
+        <v>223256.16098580975</v>
+      </c>
+      <c r="E167" s="8">
+        <f t="shared" si="43"/>
+        <v>223256.16098580975</v>
+      </c>
+      <c r="J167" s="14">
+        <f t="shared" si="33"/>
+        <v>223256.16098580975</v>
+      </c>
+      <c r="K167" s="14">
         <f t="shared" si="44"/>
-        <v>223256.16098580975</v>
-      </c>
-      <c r="E167" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N167" s="23">
         <f t="shared" si="42"/>
-        <v>223256.16098580975</v>
-      </c>
-      <c r="J167" s="14">
-        <f t="shared" si="32"/>
-        <v>223256.16098580975</v>
-      </c>
-      <c r="K167" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N167" s="23">
-        <f t="shared" si="41"/>
         <v>129266.41637067296</v>
       </c>
     </row>
@@ -6305,23 +6383,23 @@
         <v>125000</v>
       </c>
       <c r="C168" s="8">
+        <f t="shared" si="45"/>
+        <v>224000.34818909579</v>
+      </c>
+      <c r="E168" s="8">
+        <f t="shared" si="43"/>
+        <v>224000.34818909579</v>
+      </c>
+      <c r="J168" s="14">
+        <f t="shared" si="33"/>
+        <v>224000.34818909579</v>
+      </c>
+      <c r="K168" s="14">
         <f t="shared" si="44"/>
-        <v>224000.34818909579</v>
-      </c>
-      <c r="E168" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N168" s="23">
         <f t="shared" si="42"/>
-        <v>224000.34818909579</v>
-      </c>
-      <c r="J168" s="14">
-        <f t="shared" si="32"/>
-        <v>224000.34818909579</v>
-      </c>
-      <c r="K168" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N168" s="23">
-        <f t="shared" si="41"/>
         <v>130010.603573959</v>
       </c>
     </row>
@@ -6333,23 +6411,23 @@
         <v>125000</v>
       </c>
       <c r="C169" s="8">
+        <f t="shared" si="45"/>
+        <v>224747.01601639279</v>
+      </c>
+      <c r="E169" s="8">
+        <f t="shared" si="43"/>
+        <v>224747.01601639279</v>
+      </c>
+      <c r="J169" s="14">
+        <f t="shared" si="33"/>
+        <v>224747.01601639279</v>
+      </c>
+      <c r="K169" s="14">
         <f t="shared" si="44"/>
-        <v>224747.01601639279</v>
-      </c>
-      <c r="E169" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N169" s="23">
         <f t="shared" si="42"/>
-        <v>224747.01601639279</v>
-      </c>
-      <c r="J169" s="14">
-        <f t="shared" si="32"/>
-        <v>224747.01601639279</v>
-      </c>
-      <c r="K169" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N169" s="23">
-        <f t="shared" si="41"/>
         <v>130757.271401256</v>
       </c>
     </row>
@@ -6361,23 +6439,23 @@
         <v>125000</v>
       </c>
       <c r="C170" s="8">
+        <f t="shared" si="45"/>
+        <v>225496.17273644745</v>
+      </c>
+      <c r="E170" s="8">
+        <f t="shared" si="43"/>
+        <v>225496.17273644745</v>
+      </c>
+      <c r="J170" s="14">
+        <f t="shared" si="33"/>
+        <v>225496.17273644745</v>
+      </c>
+      <c r="K170" s="14">
         <f t="shared" si="44"/>
-        <v>225496.17273644745</v>
-      </c>
-      <c r="E170" s="8">
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N170" s="23">
         <f t="shared" si="42"/>
-        <v>225496.17273644745</v>
-      </c>
-      <c r="J170" s="14">
-        <f t="shared" si="32"/>
-        <v>225496.17273644745</v>
-      </c>
-      <c r="K170" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N170" s="23">
-        <f t="shared" si="41"/>
         <v>131506.42812131066</v>
       </c>
     </row>
@@ -6389,15 +6467,15 @@
         <v>125000</v>
       </c>
       <c r="C171" s="8">
-        <f t="shared" ref="C171:C182" si="45">C170*(1+$T$21)</f>
+        <f t="shared" ref="C171:C182" si="46">C170*(1+$T$21)</f>
         <v>226247.82664556894</v>
       </c>
       <c r="E171" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>226247.82664556894</v>
       </c>
       <c r="J171" s="14">
-        <f t="shared" ref="J171:J234" si="46">E171</f>
+        <f t="shared" ref="J171:J234" si="47">E171</f>
         <v>226247.82664556894</v>
       </c>
       <c r="K171" s="14">
@@ -6405,7 +6483,7 @@
         <v>93989.744615136791</v>
       </c>
       <c r="N171" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132258.08203043215</v>
       </c>
     </row>
@@ -6417,23 +6495,23 @@
         <v>125000</v>
       </c>
       <c r="C172" s="8">
-        <f t="shared" si="45"/>
-        <v>227001.98606772086</v>
-      </c>
-      <c r="E172" s="8">
-        <f t="shared" si="42"/>
-        <v>227001.98606772086</v>
-      </c>
-      <c r="J172" s="14">
         <f t="shared" si="46"/>
         <v>227001.98606772086</v>
       </c>
+      <c r="E172" s="8">
+        <f t="shared" si="43"/>
+        <v>227001.98606772086</v>
+      </c>
+      <c r="J172" s="14">
+        <f t="shared" si="47"/>
+        <v>227001.98606772086</v>
+      </c>
       <c r="K172" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N172" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>133012.24145258407</v>
       </c>
     </row>
@@ -6445,23 +6523,23 @@
         <v>125000</v>
       </c>
       <c r="C173" s="8">
-        <f t="shared" si="45"/>
-        <v>227758.65935461328</v>
-      </c>
-      <c r="E173" s="8">
-        <f t="shared" si="42"/>
-        <v>227758.65935461328</v>
-      </c>
-      <c r="J173" s="14">
         <f t="shared" si="46"/>
         <v>227758.65935461328</v>
       </c>
+      <c r="E173" s="8">
+        <f t="shared" si="43"/>
+        <v>227758.65935461328</v>
+      </c>
+      <c r="J173" s="14">
+        <f t="shared" si="47"/>
+        <v>227758.65935461328</v>
+      </c>
       <c r="K173" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N173" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>133768.91473947649</v>
       </c>
     </row>
@@ -6473,23 +6551,23 @@
         <v>125000</v>
       </c>
       <c r="C174" s="8">
-        <f t="shared" si="45"/>
-        <v>228517.85488579533</v>
-      </c>
-      <c r="E174" s="8">
-        <f t="shared" si="42"/>
-        <v>228517.85488579533</v>
-      </c>
-      <c r="J174" s="14">
         <f t="shared" si="46"/>
         <v>228517.85488579533</v>
       </c>
+      <c r="E174" s="8">
+        <f t="shared" si="43"/>
+        <v>228517.85488579533</v>
+      </c>
+      <c r="J174" s="14">
+        <f t="shared" si="47"/>
+        <v>228517.85488579533</v>
+      </c>
       <c r="K174" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N174" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>134528.11027065854</v>
       </c>
     </row>
@@ -6501,23 +6579,23 @@
         <v>125000</v>
       </c>
       <c r="C175" s="8">
-        <f t="shared" si="45"/>
-        <v>229279.581068748</v>
-      </c>
-      <c r="E175" s="8">
-        <f t="shared" si="42"/>
-        <v>229279.581068748</v>
-      </c>
-      <c r="J175" s="14">
         <f t="shared" si="46"/>
         <v>229279.581068748</v>
       </c>
+      <c r="E175" s="8">
+        <f t="shared" si="43"/>
+        <v>229279.581068748</v>
+      </c>
+      <c r="J175" s="14">
+        <f t="shared" si="47"/>
+        <v>229279.581068748</v>
+      </c>
       <c r="K175" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N175" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>135289.83645361121</v>
       </c>
     </row>
@@ -6529,23 +6607,23 @@
         <v>125000</v>
       </c>
       <c r="C176" s="8">
-        <f t="shared" si="45"/>
-        <v>230043.84633897716</v>
-      </c>
-      <c r="E176" s="8">
-        <f t="shared" si="42"/>
-        <v>230043.84633897716</v>
-      </c>
-      <c r="J176" s="14">
         <f t="shared" si="46"/>
         <v>230043.84633897716</v>
       </c>
+      <c r="E176" s="8">
+        <f t="shared" si="43"/>
+        <v>230043.84633897716</v>
+      </c>
+      <c r="J176" s="14">
+        <f t="shared" si="47"/>
+        <v>230043.84633897716</v>
+      </c>
       <c r="K176" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N176" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>136054.10172384037</v>
       </c>
     </row>
@@ -6557,23 +6635,23 @@
         <v>125000</v>
       </c>
       <c r="C177" s="8">
-        <f t="shared" si="45"/>
-        <v>230810.65916010711</v>
-      </c>
-      <c r="E177" s="8">
-        <f t="shared" si="42"/>
-        <v>230810.65916010711</v>
-      </c>
-      <c r="J177" s="14">
         <f t="shared" si="46"/>
         <v>230810.65916010711</v>
       </c>
+      <c r="E177" s="8">
+        <f t="shared" si="43"/>
+        <v>230810.65916010711</v>
+      </c>
+      <c r="J177" s="14">
+        <f t="shared" si="47"/>
+        <v>230810.65916010711</v>
+      </c>
       <c r="K177" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N177" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>136820.91454497032</v>
       </c>
     </row>
@@ -6585,23 +6663,23 @@
         <v>125000</v>
       </c>
       <c r="C178" s="8">
-        <f t="shared" si="45"/>
-        <v>231580.02802397416</v>
-      </c>
-      <c r="E178" s="8">
-        <f t="shared" si="42"/>
-        <v>231580.02802397416</v>
-      </c>
-      <c r="J178" s="14">
         <f t="shared" si="46"/>
         <v>231580.02802397416</v>
       </c>
+      <c r="E178" s="8">
+        <f t="shared" si="43"/>
+        <v>231580.02802397416</v>
+      </c>
+      <c r="J178" s="14">
+        <f t="shared" si="47"/>
+        <v>231580.02802397416</v>
+      </c>
       <c r="K178" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N178" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>137590.28340883736</v>
       </c>
     </row>
@@ -6613,23 +6691,23 @@
         <v>125000</v>
       </c>
       <c r="C179" s="8">
-        <f t="shared" si="45"/>
-        <v>232351.96145072076</v>
-      </c>
-      <c r="E179" s="8">
-        <f t="shared" si="42"/>
-        <v>232351.96145072076</v>
-      </c>
-      <c r="J179" s="14">
         <f t="shared" si="46"/>
         <v>232351.96145072076</v>
       </c>
+      <c r="E179" s="8">
+        <f t="shared" si="43"/>
+        <v>232351.96145072076</v>
+      </c>
+      <c r="J179" s="14">
+        <f t="shared" si="47"/>
+        <v>232351.96145072076</v>
+      </c>
       <c r="K179" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N179" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>138362.21683558397</v>
       </c>
     </row>
@@ -6641,23 +6719,23 @@
         <v>125000</v>
       </c>
       <c r="C180" s="8">
-        <f t="shared" si="45"/>
-        <v>233126.46798888984</v>
-      </c>
-      <c r="E180" s="8">
-        <f t="shared" si="42"/>
-        <v>233126.46798888984</v>
-      </c>
-      <c r="J180" s="14">
         <f t="shared" si="46"/>
         <v>233126.46798888984</v>
       </c>
+      <c r="E180" s="8">
+        <f t="shared" si="43"/>
+        <v>233126.46798888984</v>
+      </c>
+      <c r="J180" s="14">
+        <f t="shared" si="47"/>
+        <v>233126.46798888984</v>
+      </c>
       <c r="K180" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N180" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>139136.72337375305</v>
       </c>
     </row>
@@ -6669,23 +6747,23 @@
         <v>125000</v>
       </c>
       <c r="C181" s="8">
-        <f t="shared" si="45"/>
-        <v>233903.55621551949</v>
-      </c>
-      <c r="E181" s="8">
-        <f t="shared" si="42"/>
-        <v>233903.55621551949</v>
-      </c>
-      <c r="J181" s="14">
         <f t="shared" si="46"/>
         <v>233903.55621551949</v>
       </c>
+      <c r="E181" s="8">
+        <f t="shared" si="43"/>
+        <v>233903.55621551949</v>
+      </c>
+      <c r="J181" s="14">
+        <f t="shared" si="47"/>
+        <v>233903.55621551949</v>
+      </c>
       <c r="K181" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N181" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>139913.8116003827</v>
       </c>
     </row>
@@ -6697,23 +6775,23 @@
         <v>125000</v>
       </c>
       <c r="C182" s="8">
-        <f t="shared" si="45"/>
-        <v>234683.23473623791</v>
-      </c>
-      <c r="E182" s="8">
-        <f t="shared" si="42"/>
-        <v>234683.23473623791</v>
-      </c>
-      <c r="J182" s="14">
         <f t="shared" si="46"/>
         <v>234683.23473623791</v>
       </c>
+      <c r="E182" s="8">
+        <f t="shared" si="43"/>
+        <v>234683.23473623791</v>
+      </c>
+      <c r="J182" s="14">
+        <f t="shared" si="47"/>
+        <v>234683.23473623791</v>
+      </c>
       <c r="K182" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N182" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>140693.49012110112</v>
       </c>
     </row>
@@ -6725,23 +6803,23 @@
         <v>125000</v>
       </c>
       <c r="C183" s="8">
-        <f t="shared" ref="C183:C194" si="47">C182*(1+$T$22)</f>
+        <f t="shared" ref="C183:C194" si="48">C182*(1+$T$22)</f>
         <v>235465.51218535873</v>
       </c>
       <c r="E183" s="8">
+        <f t="shared" si="43"/>
+        <v>235465.51218535873</v>
+      </c>
+      <c r="J183" s="14">
+        <f t="shared" si="47"/>
+        <v>235465.51218535873</v>
+      </c>
+      <c r="K183" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N183" s="23">
         <f t="shared" si="42"/>
-        <v>235465.51218535873</v>
-      </c>
-      <c r="J183" s="14">
-        <f t="shared" si="46"/>
-        <v>235465.51218535873</v>
-      </c>
-      <c r="K183" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N183" s="23">
-        <f t="shared" si="41"/>
         <v>141475.76757022194</v>
       </c>
     </row>
@@ -6753,23 +6831,23 @@
         <v>125000</v>
       </c>
       <c r="C184" s="8">
+        <f t="shared" si="48"/>
+        <v>236250.3972259766</v>
+      </c>
+      <c r="E184" s="8">
+        <f t="shared" si="43"/>
+        <v>236250.3972259766</v>
+      </c>
+      <c r="J184" s="14">
         <f t="shared" si="47"/>
         <v>236250.3972259766</v>
       </c>
-      <c r="E184" s="8">
+      <c r="K184" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N184" s="23">
         <f t="shared" si="42"/>
-        <v>236250.3972259766</v>
-      </c>
-      <c r="J184" s="14">
-        <f t="shared" si="46"/>
-        <v>236250.3972259766</v>
-      </c>
-      <c r="K184" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N184" s="23">
-        <f t="shared" si="41"/>
         <v>142260.65261083981</v>
       </c>
     </row>
@@ -6781,23 +6859,23 @@
         <v>125000</v>
       </c>
       <c r="C185" s="8">
+        <f t="shared" si="48"/>
+        <v>237037.8985500632</v>
+      </c>
+      <c r="E185" s="8">
+        <f t="shared" si="43"/>
+        <v>237037.8985500632</v>
+      </c>
+      <c r="J185" s="14">
         <f t="shared" si="47"/>
         <v>237037.8985500632</v>
       </c>
-      <c r="E185" s="8">
+      <c r="K185" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N185" s="23">
         <f t="shared" si="42"/>
-        <v>237037.8985500632</v>
-      </c>
-      <c r="J185" s="14">
-        <f t="shared" si="46"/>
-        <v>237037.8985500632</v>
-      </c>
-      <c r="K185" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N185" s="23">
-        <f t="shared" si="41"/>
         <v>143048.15393492641</v>
       </c>
     </row>
@@ -6809,23 +6887,23 @@
         <v>125000</v>
       </c>
       <c r="C186" s="8">
+        <f t="shared" si="48"/>
+        <v>237828.02487856342</v>
+      </c>
+      <c r="E186" s="8">
+        <f t="shared" si="43"/>
+        <v>237828.02487856342</v>
+      </c>
+      <c r="J186" s="14">
         <f t="shared" si="47"/>
         <v>237828.02487856342</v>
       </c>
-      <c r="E186" s="8">
+      <c r="K186" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N186" s="23">
         <f t="shared" si="42"/>
-        <v>237828.02487856342</v>
-      </c>
-      <c r="J186" s="14">
-        <f t="shared" si="46"/>
-        <v>237828.02487856342</v>
-      </c>
-      <c r="K186" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N186" s="23">
-        <f t="shared" si="41"/>
         <v>143838.28026342663</v>
       </c>
     </row>
@@ -6837,23 +6915,23 @@
         <v>125000</v>
       </c>
       <c r="C187" s="8">
+        <f t="shared" si="48"/>
+        <v>238620.78496149197</v>
+      </c>
+      <c r="E187" s="8">
+        <f t="shared" si="43"/>
+        <v>238620.78496149197</v>
+      </c>
+      <c r="J187" s="14">
         <f t="shared" si="47"/>
         <v>238620.78496149197</v>
       </c>
-      <c r="E187" s="8">
+      <c r="K187" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N187" s="23">
         <f t="shared" si="42"/>
-        <v>238620.78496149197</v>
-      </c>
-      <c r="J187" s="14">
-        <f t="shared" si="46"/>
-        <v>238620.78496149197</v>
-      </c>
-      <c r="K187" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N187" s="23">
-        <f t="shared" si="41"/>
         <v>144631.04034635518</v>
       </c>
     </row>
@@ -6865,23 +6943,23 @@
         <v>125000</v>
       </c>
       <c r="C188" s="8">
+        <f t="shared" si="48"/>
+        <v>239416.18757803028</v>
+      </c>
+      <c r="E188" s="8">
+        <f t="shared" si="43"/>
+        <v>239416.18757803028</v>
+      </c>
+      <c r="J188" s="14">
         <f t="shared" si="47"/>
         <v>239416.18757803028</v>
       </c>
-      <c r="E188" s="8">
+      <c r="K188" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N188" s="23">
         <f t="shared" si="42"/>
-        <v>239416.18757803028</v>
-      </c>
-      <c r="J188" s="14">
-        <f t="shared" si="46"/>
-        <v>239416.18757803028</v>
-      </c>
-      <c r="K188" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N188" s="23">
-        <f t="shared" si="41"/>
         <v>145426.44296289349</v>
       </c>
     </row>
@@ -6893,23 +6971,23 @@
         <v>125000</v>
       </c>
       <c r="C189" s="8">
+        <f t="shared" si="48"/>
+        <v>240214.24153662374</v>
+      </c>
+      <c r="E189" s="8">
+        <f t="shared" si="43"/>
+        <v>240214.24153662374</v>
+      </c>
+      <c r="J189" s="14">
         <f t="shared" si="47"/>
         <v>240214.24153662374</v>
       </c>
-      <c r="E189" s="8">
+      <c r="K189" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N189" s="23">
         <f t="shared" si="42"/>
-        <v>240214.24153662374</v>
-      </c>
-      <c r="J189" s="14">
-        <f t="shared" si="46"/>
-        <v>240214.24153662374</v>
-      </c>
-      <c r="K189" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N189" s="23">
-        <f t="shared" si="41"/>
         <v>146224.49692148695</v>
       </c>
     </row>
@@ -6921,23 +6999,23 @@
         <v>125000</v>
       </c>
       <c r="C190" s="8">
+        <f t="shared" si="48"/>
+        <v>241014.95567507917</v>
+      </c>
+      <c r="E190" s="8">
+        <f t="shared" si="43"/>
+        <v>241014.95567507917</v>
+      </c>
+      <c r="J190" s="14">
         <f t="shared" si="47"/>
         <v>241014.95567507917</v>
       </c>
-      <c r="E190" s="8">
+      <c r="K190" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N190" s="23">
         <f t="shared" si="42"/>
-        <v>241014.95567507917</v>
-      </c>
-      <c r="J190" s="14">
-        <f t="shared" si="46"/>
-        <v>241014.95567507917</v>
-      </c>
-      <c r="K190" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N190" s="23">
-        <f t="shared" si="41"/>
         <v>147025.21105994238</v>
       </c>
     </row>
@@ -6949,23 +7027,23 @@
         <v>125000</v>
       </c>
       <c r="C191" s="8">
+        <f t="shared" si="48"/>
+        <v>241818.33886066277</v>
+      </c>
+      <c r="E191" s="8">
+        <f t="shared" si="43"/>
+        <v>241818.33886066277</v>
+      </c>
+      <c r="J191" s="14">
         <f t="shared" si="47"/>
         <v>241818.33886066277</v>
       </c>
-      <c r="E191" s="8">
+      <c r="K191" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N191" s="23">
         <f t="shared" si="42"/>
-        <v>241818.33886066277</v>
-      </c>
-      <c r="J191" s="14">
-        <f t="shared" si="46"/>
-        <v>241818.33886066277</v>
-      </c>
-      <c r="K191" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N191" s="23">
-        <f t="shared" si="41"/>
         <v>147828.59424552598</v>
       </c>
     </row>
@@ -6977,23 +7055,23 @@
         <v>125000</v>
       </c>
       <c r="C192" s="8">
+        <f t="shared" si="48"/>
+        <v>242624.39999019832</v>
+      </c>
+      <c r="E192" s="8">
+        <f t="shared" si="43"/>
+        <v>242624.39999019832</v>
+      </c>
+      <c r="J192" s="14">
         <f t="shared" si="47"/>
         <v>242624.39999019832</v>
       </c>
-      <c r="E192" s="8">
+      <c r="K192" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N192" s="23">
         <f t="shared" si="42"/>
-        <v>242624.39999019832</v>
-      </c>
-      <c r="J192" s="14">
-        <f t="shared" si="46"/>
-        <v>242624.39999019832</v>
-      </c>
-      <c r="K192" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N192" s="23">
-        <f t="shared" si="41"/>
         <v>148634.65537506153</v>
       </c>
     </row>
@@ -7005,23 +7083,23 @@
         <v>125000</v>
       </c>
       <c r="C193" s="8">
+        <f t="shared" si="48"/>
+        <v>243433.14799016566</v>
+      </c>
+      <c r="E193" s="8">
+        <f t="shared" si="43"/>
+        <v>243433.14799016566</v>
+      </c>
+      <c r="J193" s="14">
         <f t="shared" si="47"/>
         <v>243433.14799016566</v>
       </c>
-      <c r="E193" s="8">
+      <c r="K193" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N193" s="23">
         <f t="shared" si="42"/>
-        <v>243433.14799016566</v>
-      </c>
-      <c r="J193" s="14">
-        <f t="shared" si="46"/>
-        <v>243433.14799016566</v>
-      </c>
-      <c r="K193" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N193" s="23">
-        <f t="shared" si="41"/>
         <v>149443.40337502887</v>
       </c>
     </row>
@@ -7033,23 +7111,23 @@
         <v>125000</v>
       </c>
       <c r="C194" s="8">
+        <f t="shared" si="48"/>
+        <v>244244.59181679957</v>
+      </c>
+      <c r="E194" s="8">
+        <f t="shared" si="43"/>
+        <v>244244.59181679957</v>
+      </c>
+      <c r="J194" s="14">
         <f t="shared" si="47"/>
         <v>244244.59181679957</v>
       </c>
-      <c r="E194" s="8">
+      <c r="K194" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N194" s="23">
         <f t="shared" si="42"/>
-        <v>244244.59181679957</v>
-      </c>
-      <c r="J194" s="14">
-        <f t="shared" si="46"/>
-        <v>244244.59181679957</v>
-      </c>
-      <c r="K194" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N194" s="23">
-        <f t="shared" si="41"/>
         <v>150254.84720166278</v>
       </c>
     </row>
@@ -7061,23 +7139,23 @@
         <v>125000</v>
       </c>
       <c r="C195" s="8">
-        <f t="shared" ref="C195:C206" si="48">C194*(1+$T$23)</f>
+        <f t="shared" ref="C195:C206" si="49">C194*(1+$T$23)</f>
         <v>245058.74045618891</v>
       </c>
       <c r="E195" s="8">
+        <f t="shared" si="43"/>
+        <v>245058.74045618891</v>
+      </c>
+      <c r="J195" s="14">
+        <f t="shared" si="47"/>
+        <v>245058.74045618891</v>
+      </c>
+      <c r="K195" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N195" s="23">
         <f t="shared" si="42"/>
-        <v>245058.74045618891</v>
-      </c>
-      <c r="J195" s="14">
-        <f t="shared" si="46"/>
-        <v>245058.74045618891</v>
-      </c>
-      <c r="K195" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N195" s="23">
-        <f t="shared" si="41"/>
         <v>151068.99584105212</v>
       </c>
     </row>
@@ -7089,23 +7167,23 @@
         <v>125000</v>
       </c>
       <c r="C196" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>245875.60292437623</v>
       </c>
       <c r="E196" s="8">
+        <f t="shared" si="43"/>
+        <v>245875.60292437623</v>
+      </c>
+      <c r="J196" s="14">
+        <f t="shared" si="47"/>
+        <v>245875.60292437623</v>
+      </c>
+      <c r="K196" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N196" s="23">
         <f t="shared" si="42"/>
-        <v>245875.60292437623</v>
-      </c>
-      <c r="J196" s="14">
-        <f t="shared" si="46"/>
-        <v>245875.60292437623</v>
-      </c>
-      <c r="K196" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N196" s="23">
-        <f t="shared" si="41"/>
         <v>151885.85830923944</v>
       </c>
     </row>
@@ -7117,23 +7195,23 @@
         <v>125000</v>
       </c>
       <c r="C197" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>246695.1882674575</v>
       </c>
       <c r="E197" s="8">
+        <f t="shared" si="43"/>
+        <v>246695.1882674575</v>
+      </c>
+      <c r="J197" s="14">
+        <f t="shared" si="47"/>
+        <v>246695.1882674575</v>
+      </c>
+      <c r="K197" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N197" s="23">
         <f t="shared" si="42"/>
-        <v>246695.1882674575</v>
-      </c>
-      <c r="J197" s="14">
-        <f t="shared" si="46"/>
-        <v>246695.1882674575</v>
-      </c>
-      <c r="K197" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N197" s="23">
-        <f t="shared" si="41"/>
         <v>152705.44365232071</v>
       </c>
     </row>
@@ -7145,23 +7223,23 @@
         <v>125000</v>
       </c>
       <c r="C198" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>247517.50556168237</v>
       </c>
       <c r="E198" s="8">
+        <f t="shared" si="43"/>
+        <v>247517.50556168237</v>
+      </c>
+      <c r="J198" s="14">
+        <f t="shared" si="47"/>
+        <v>247517.50556168237</v>
+      </c>
+      <c r="K198" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N198" s="23">
         <f t="shared" si="42"/>
-        <v>247517.50556168237</v>
-      </c>
-      <c r="J198" s="14">
-        <f t="shared" si="46"/>
-        <v>247517.50556168237</v>
-      </c>
-      <c r="K198" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N198" s="23">
-        <f t="shared" si="41"/>
         <v>153527.76094654558</v>
       </c>
     </row>
@@ -7173,23 +7251,23 @@
         <v>125000</v>
       </c>
       <c r="C199" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>248342.56391355465</v>
       </c>
       <c r="E199" s="8">
+        <f t="shared" si="43"/>
+        <v>248342.56391355465</v>
+      </c>
+      <c r="J199" s="14">
+        <f t="shared" si="47"/>
+        <v>248342.56391355465</v>
+      </c>
+      <c r="K199" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N199" s="23">
         <f t="shared" si="42"/>
-        <v>248342.56391355465</v>
-      </c>
-      <c r="J199" s="14">
-        <f t="shared" si="46"/>
-        <v>248342.56391355465</v>
-      </c>
-      <c r="K199" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N199" s="23">
-        <f t="shared" si="41"/>
         <v>154352.81929841786</v>
       </c>
     </row>
@@ -7201,23 +7279,23 @@
         <v>125000</v>
       </c>
       <c r="C200" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>249170.37245993319</v>
       </c>
       <c r="E200" s="8">
+        <f t="shared" si="43"/>
+        <v>249170.37245993319</v>
+      </c>
+      <c r="J200" s="14">
+        <f t="shared" si="47"/>
+        <v>249170.37245993319</v>
+      </c>
+      <c r="K200" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N200" s="23">
         <f t="shared" si="42"/>
-        <v>249170.37245993319</v>
-      </c>
-      <c r="J200" s="14">
-        <f t="shared" si="46"/>
-        <v>249170.37245993319</v>
-      </c>
-      <c r="K200" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N200" s="23">
-        <f t="shared" si="41"/>
         <v>155180.6278447964</v>
       </c>
     </row>
@@ -7229,23 +7307,23 @@
         <v>125000</v>
       </c>
       <c r="C201" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>250000.94036813299</v>
       </c>
       <c r="E201" s="8">
+        <f t="shared" si="43"/>
+        <v>250000.94036813299</v>
+      </c>
+      <c r="J201" s="14">
+        <f t="shared" si="47"/>
+        <v>250000.94036813299</v>
+      </c>
+      <c r="K201" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N201" s="23">
         <f t="shared" si="42"/>
-        <v>250000.94036813299</v>
-      </c>
-      <c r="J201" s="14">
-        <f t="shared" si="46"/>
-        <v>250000.94036813299</v>
-      </c>
-      <c r="K201" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N201" s="23">
-        <f t="shared" si="41"/>
         <v>156011.19575299619</v>
       </c>
     </row>
@@ -7257,23 +7335,23 @@
         <v>125000</v>
       </c>
       <c r="C202" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>250834.27683602678</v>
       </c>
       <c r="E202" s="8">
+        <f t="shared" si="43"/>
+        <v>250834.27683602678</v>
+      </c>
+      <c r="J202" s="14">
+        <f t="shared" si="47"/>
+        <v>250834.27683602678</v>
+      </c>
+      <c r="K202" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N202" s="23">
         <f t="shared" si="42"/>
-        <v>250834.27683602678</v>
-      </c>
-      <c r="J202" s="14">
-        <f t="shared" si="46"/>
-        <v>250834.27683602678</v>
-      </c>
-      <c r="K202" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N202" s="23">
-        <f t="shared" si="41"/>
         <v>156844.53222088999</v>
       </c>
     </row>
@@ -7285,23 +7363,23 @@
         <v>125000</v>
       </c>
       <c r="C203" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>251670.39109214689</v>
       </c>
       <c r="E203" s="8">
+        <f t="shared" si="43"/>
+        <v>251670.39109214689</v>
+      </c>
+      <c r="J203" s="14">
+        <f t="shared" si="47"/>
+        <v>251670.39109214689</v>
+      </c>
+      <c r="K203" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N203" s="23">
         <f t="shared" si="42"/>
-        <v>251670.39109214689</v>
-      </c>
-      <c r="J203" s="14">
-        <f t="shared" si="46"/>
-        <v>251670.39109214689</v>
-      </c>
-      <c r="K203" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N203" s="23">
-        <f t="shared" si="41"/>
         <v>157680.6464770101</v>
       </c>
     </row>
@@ -7313,23 +7391,23 @@
         <v>125000</v>
       </c>
       <c r="C204" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>252509.2923957874</v>
       </c>
       <c r="E204" s="8">
+        <f t="shared" si="43"/>
+        <v>252509.2923957874</v>
+      </c>
+      <c r="J204" s="14">
+        <f t="shared" si="47"/>
+        <v>252509.2923957874</v>
+      </c>
+      <c r="K204" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N204" s="23">
         <f t="shared" si="42"/>
-        <v>252509.2923957874</v>
-      </c>
-      <c r="J204" s="14">
-        <f t="shared" si="46"/>
-        <v>252509.2923957874</v>
-      </c>
-      <c r="K204" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N204" s="23">
-        <f t="shared" si="41"/>
         <v>158519.54778065061</v>
       </c>
     </row>
@@ -7341,23 +7419,23 @@
         <v>125000</v>
       </c>
       <c r="C205" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>253350.99003710671</v>
       </c>
       <c r="E205" s="8">
+        <f t="shared" si="43"/>
+        <v>253350.99003710671</v>
+      </c>
+      <c r="J205" s="14">
+        <f t="shared" si="47"/>
+        <v>253350.99003710671</v>
+      </c>
+      <c r="K205" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N205" s="23">
         <f t="shared" si="42"/>
-        <v>253350.99003710671</v>
-      </c>
-      <c r="J205" s="14">
-        <f t="shared" si="46"/>
-        <v>253350.99003710671</v>
-      </c>
-      <c r="K205" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N205" s="23">
-        <f t="shared" si="41"/>
         <v>159361.24542196991</v>
       </c>
     </row>
@@ -7369,23 +7447,23 @@
         <v>125000</v>
       </c>
       <c r="C206" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>254195.49333723041</v>
       </c>
       <c r="E206" s="8">
+        <f t="shared" si="43"/>
+        <v>254195.49333723041</v>
+      </c>
+      <c r="J206" s="14">
+        <f t="shared" si="47"/>
+        <v>254195.49333723041</v>
+      </c>
+      <c r="K206" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N206" s="23">
         <f t="shared" si="42"/>
-        <v>254195.49333723041</v>
-      </c>
-      <c r="J206" s="14">
-        <f t="shared" si="46"/>
-        <v>254195.49333723041</v>
-      </c>
-      <c r="K206" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N206" s="23">
-        <f t="shared" si="41"/>
         <v>160205.74872209362</v>
       </c>
     </row>
@@ -7397,23 +7475,23 @@
         <v>125000</v>
       </c>
       <c r="C207" s="8">
-        <f t="shared" ref="C207:C218" si="49">C206*(1+$T$24)</f>
+        <f t="shared" ref="C207:C218" si="50">C206*(1+$T$24)</f>
         <v>255042.81164835452</v>
       </c>
       <c r="E207" s="8">
+        <f t="shared" si="43"/>
+        <v>255042.81164835452</v>
+      </c>
+      <c r="J207" s="14">
+        <f t="shared" si="47"/>
+        <v>255042.81164835452</v>
+      </c>
+      <c r="K207" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N207" s="23">
         <f t="shared" si="42"/>
-        <v>255042.81164835452</v>
-      </c>
-      <c r="J207" s="14">
-        <f t="shared" si="46"/>
-        <v>255042.81164835452</v>
-      </c>
-      <c r="K207" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N207" s="23">
-        <f t="shared" si="41"/>
         <v>161053.06703321773</v>
       </c>
     </row>
@@ -7425,23 +7503,23 @@
         <v>125000</v>
       </c>
       <c r="C208" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>255892.95435384905</v>
       </c>
       <c r="E208" s="8">
+        <f t="shared" si="43"/>
+        <v>255892.95435384905</v>
+      </c>
+      <c r="J208" s="14">
+        <f t="shared" si="47"/>
+        <v>255892.95435384905</v>
+      </c>
+      <c r="K208" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N208" s="23">
         <f t="shared" si="42"/>
-        <v>255892.95435384905</v>
-      </c>
-      <c r="J208" s="14">
-        <f t="shared" si="46"/>
-        <v>255892.95435384905</v>
-      </c>
-      <c r="K208" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N208" s="23">
-        <f t="shared" si="41"/>
         <v>161903.20973871226</v>
       </c>
     </row>
@@ -7453,23 +7531,23 @@
         <v>125000</v>
       </c>
       <c r="C209" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>256745.9308683619</v>
       </c>
       <c r="E209" s="8">
+        <f t="shared" si="43"/>
+        <v>256745.9308683619</v>
+      </c>
+      <c r="J209" s="14">
+        <f t="shared" si="47"/>
+        <v>256745.9308683619</v>
+      </c>
+      <c r="K209" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N209" s="23">
         <f t="shared" si="42"/>
-        <v>256745.9308683619</v>
-      </c>
-      <c r="J209" s="14">
-        <f t="shared" si="46"/>
-        <v>256745.9308683619</v>
-      </c>
-      <c r="K209" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N209" s="23">
-        <f t="shared" si="41"/>
         <v>162756.18625322511</v>
       </c>
     </row>
@@ -7481,23 +7559,23 @@
         <v>125000</v>
       </c>
       <c r="C210" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>257601.75063792313</v>
       </c>
       <c r="E210" s="8">
+        <f t="shared" si="43"/>
+        <v>257601.75063792313</v>
+      </c>
+      <c r="J210" s="14">
+        <f t="shared" si="47"/>
+        <v>257601.75063792313</v>
+      </c>
+      <c r="K210" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N210" s="23">
         <f t="shared" si="42"/>
-        <v>257601.75063792313</v>
-      </c>
-      <c r="J210" s="14">
-        <f t="shared" si="46"/>
-        <v>257601.75063792313</v>
-      </c>
-      <c r="K210" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N210" s="23">
-        <f t="shared" si="41"/>
         <v>163612.00602278634</v>
       </c>
     </row>
@@ -7509,23 +7587,23 @@
         <v>125000</v>
       </c>
       <c r="C211" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>258460.42314004956</v>
       </c>
       <c r="E211" s="8">
+        <f t="shared" si="43"/>
+        <v>258460.42314004956</v>
+      </c>
+      <c r="J211" s="14">
+        <f t="shared" si="47"/>
+        <v>258460.42314004956</v>
+      </c>
+      <c r="K211" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N211" s="23">
         <f t="shared" si="42"/>
-        <v>258460.42314004956</v>
-      </c>
-      <c r="J211" s="14">
-        <f t="shared" si="46"/>
-        <v>258460.42314004956</v>
-      </c>
-      <c r="K211" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N211" s="23">
-        <f t="shared" si="41"/>
         <v>164470.67852491277</v>
       </c>
     </row>
@@ -7537,23 +7615,23 @@
         <v>125000</v>
       </c>
       <c r="C212" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>259321.95788384974</v>
       </c>
       <c r="E212" s="8">
+        <f t="shared" si="43"/>
+        <v>259321.95788384974</v>
+      </c>
+      <c r="J212" s="14">
+        <f t="shared" si="47"/>
+        <v>259321.95788384974</v>
+      </c>
+      <c r="K212" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N212" s="23">
         <f t="shared" si="42"/>
-        <v>259321.95788384974</v>
-      </c>
-      <c r="J212" s="14">
-        <f t="shared" si="46"/>
-        <v>259321.95788384974</v>
-      </c>
-      <c r="K212" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N212" s="23">
-        <f t="shared" si="41"/>
         <v>165332.21326871295</v>
       </c>
     </row>
@@ -7565,23 +7643,23 @@
         <v>125000</v>
       </c>
       <c r="C213" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>260186.36441012926</v>
       </c>
       <c r="E213" s="8">
+        <f t="shared" si="43"/>
+        <v>260186.36441012926</v>
+      </c>
+      <c r="J213" s="14">
+        <f t="shared" si="47"/>
+        <v>260186.36441012926</v>
+      </c>
+      <c r="K213" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N213" s="23">
         <f t="shared" si="42"/>
-        <v>260186.36441012926</v>
-      </c>
-      <c r="J213" s="14">
-        <f t="shared" si="46"/>
-        <v>260186.36441012926</v>
-      </c>
-      <c r="K213" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N213" s="23">
-        <f t="shared" si="41"/>
         <v>166196.61979499247</v>
       </c>
     </row>
@@ -7593,23 +7671,23 @@
         <v>125000</v>
       </c>
       <c r="C214" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>261053.65229149637</v>
       </c>
       <c r="E214" s="8">
+        <f t="shared" si="43"/>
+        <v>261053.65229149637</v>
+      </c>
+      <c r="J214" s="14">
+        <f t="shared" si="47"/>
+        <v>261053.65229149637</v>
+      </c>
+      <c r="K214" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N214" s="23">
         <f t="shared" si="42"/>
-        <v>261053.65229149637</v>
-      </c>
-      <c r="J214" s="14">
-        <f t="shared" si="46"/>
-        <v>261053.65229149637</v>
-      </c>
-      <c r="K214" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N214" s="23">
-        <f t="shared" si="41"/>
         <v>167063.90767635958</v>
       </c>
     </row>
@@ -7621,23 +7699,23 @@
         <v>125000</v>
       </c>
       <c r="C215" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>261923.83113246804</v>
       </c>
       <c r="E215" s="8">
+        <f t="shared" si="43"/>
+        <v>261923.83113246804</v>
+      </c>
+      <c r="J215" s="14">
+        <f t="shared" si="47"/>
+        <v>261923.83113246804</v>
+      </c>
+      <c r="K215" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N215" s="23">
         <f t="shared" si="42"/>
-        <v>261923.83113246804</v>
-      </c>
-      <c r="J215" s="14">
-        <f t="shared" si="46"/>
-        <v>261923.83113246804</v>
-      </c>
-      <c r="K215" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N215" s="23">
-        <f t="shared" si="41"/>
         <v>167934.08651733125</v>
       </c>
     </row>
@@ -7649,23 +7727,23 @@
         <v>125000</v>
       </c>
       <c r="C216" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>262796.91056957631</v>
       </c>
       <c r="E216" s="8">
+        <f t="shared" si="43"/>
+        <v>262796.91056957631</v>
+      </c>
+      <c r="J216" s="14">
+        <f t="shared" si="47"/>
+        <v>262796.91056957631</v>
+      </c>
+      <c r="K216" s="14">
+        <f t="shared" si="44"/>
+        <v>93989.744615136791</v>
+      </c>
+      <c r="N216" s="23">
         <f t="shared" si="42"/>
-        <v>262796.91056957631</v>
-      </c>
-      <c r="J216" s="14">
-        <f t="shared" si="46"/>
-        <v>262796.91056957631</v>
-      </c>
-      <c r="K216" s="14">
-        <f t="shared" si="43"/>
-        <v>93989.744615136791</v>
-      </c>
-      <c r="N216" s="23">
-        <f t="shared" si="41"/>
         <v>168807.16595443952</v>
       </c>
     </row>
@@ -7677,23 +7755,23 @@
         <v>125000</v>
       </c>
       <c r="C217" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>263672.90027147491</v>
       </c>
       <c r="E217" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>263672.90027147491</v>
       </c>
       <c r="J217" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>263672.90027147491</v>
       </c>
       <c r="K217" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N217" s="23">
-        <f t="shared" ref="N217:N266" si="50">J217-K217</f>
+        <f t="shared" ref="N217:N266" si="51">J217-K217</f>
         <v>169683.15565633812</v>
       </c>
     </row>
@@ -7705,23 +7783,23 @@
         <v>125000</v>
       </c>
       <c r="C218" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>264551.80993904651</v>
       </c>
       <c r="E218" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>264551.80993904651</v>
       </c>
       <c r="J218" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>264551.80993904651</v>
       </c>
       <c r="K218" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N218" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>170562.06532390972</v>
       </c>
     </row>
@@ -7733,23 +7811,23 @@
         <v>125000</v>
       </c>
       <c r="C219" s="8">
-        <f t="shared" ref="C219:C230" si="51">C218*(1+$T$25)</f>
+        <f t="shared" ref="C219:C230" si="52">C218*(1+$T$25)</f>
         <v>265433.64930551004</v>
       </c>
       <c r="E219" s="8">
-        <f t="shared" ref="E219:E266" si="52">C219-D219</f>
+        <f t="shared" ref="E219:E266" si="53">C219-D219</f>
         <v>265433.64930551004</v>
       </c>
       <c r="J219" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>265433.64930551004</v>
       </c>
       <c r="K219" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N219" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>171443.90469037325</v>
       </c>
     </row>
@@ -7761,23 +7839,23 @@
         <v>125000</v>
       </c>
       <c r="C220" s="8">
-        <f t="shared" si="51"/>
-        <v>266318.42813652841</v>
-      </c>
-      <c r="E220" s="8">
         <f t="shared" si="52"/>
         <v>266318.42813652841</v>
       </c>
+      <c r="E220" s="8">
+        <f t="shared" si="53"/>
+        <v>266318.42813652841</v>
+      </c>
       <c r="J220" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>266318.42813652841</v>
       </c>
       <c r="K220" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N220" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>172328.68352139162</v>
       </c>
     </row>
@@ -7789,23 +7867,23 @@
         <v>125000</v>
       </c>
       <c r="C221" s="8">
-        <f t="shared" si="51"/>
-        <v>267206.15623031685</v>
-      </c>
-      <c r="E221" s="8">
         <f t="shared" si="52"/>
         <v>267206.15623031685</v>
       </c>
+      <c r="E221" s="8">
+        <f t="shared" si="53"/>
+        <v>267206.15623031685</v>
+      </c>
       <c r="J221" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>267206.15623031685</v>
       </c>
       <c r="K221" s="14">
-        <f t="shared" ref="K221:K266" si="53">$K$155</f>
+        <f t="shared" ref="K221:K266" si="54">$K$155</f>
         <v>93989.744615136791</v>
       </c>
       <c r="N221" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>173216.41161518006</v>
       </c>
     </row>
@@ -7817,23 +7895,23 @@
         <v>125000</v>
       </c>
       <c r="C222" s="8">
-        <f t="shared" si="51"/>
-        <v>268096.84341775125</v>
-      </c>
-      <c r="E222" s="8">
         <f t="shared" si="52"/>
         <v>268096.84341775125</v>
       </c>
+      <c r="E222" s="8">
+        <f t="shared" si="53"/>
+        <v>268096.84341775125</v>
+      </c>
       <c r="J222" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>268096.84341775125</v>
       </c>
       <c r="K222" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N222" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>174107.09880261446</v>
       </c>
     </row>
@@ -7845,23 +7923,23 @@
         <v>125000</v>
       </c>
       <c r="C223" s="8">
-        <f t="shared" si="51"/>
-        <v>268990.49956247711</v>
-      </c>
-      <c r="E223" s="8">
         <f t="shared" si="52"/>
         <v>268990.49956247711</v>
       </c>
+      <c r="E223" s="8">
+        <f t="shared" si="53"/>
+        <v>268990.49956247711</v>
+      </c>
       <c r="J223" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>268990.49956247711</v>
       </c>
       <c r="K223" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N223" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>175000.75494734032</v>
       </c>
     </row>
@@ -7873,23 +7951,23 @@
         <v>125000</v>
       </c>
       <c r="C224" s="8">
-        <f t="shared" si="51"/>
-        <v>269887.13456101873</v>
-      </c>
-      <c r="E224" s="8">
         <f t="shared" si="52"/>
         <v>269887.13456101873</v>
       </c>
+      <c r="E224" s="8">
+        <f t="shared" si="53"/>
+        <v>269887.13456101873</v>
+      </c>
       <c r="J224" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>269887.13456101873</v>
       </c>
       <c r="K224" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N224" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>175897.38994588194</v>
       </c>
     </row>
@@ -7901,23 +7979,23 @@
         <v>125000</v>
       </c>
       <c r="C225" s="8">
-        <f t="shared" si="51"/>
-        <v>270786.75834288879</v>
-      </c>
-      <c r="E225" s="8">
         <f t="shared" si="52"/>
         <v>270786.75834288879</v>
       </c>
+      <c r="E225" s="8">
+        <f t="shared" si="53"/>
+        <v>270786.75834288879</v>
+      </c>
       <c r="J225" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>270786.75834288879</v>
       </c>
       <c r="K225" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N225" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>176797.013727752</v>
       </c>
     </row>
@@ -7929,23 +8007,23 @@
         <v>125000</v>
       </c>
       <c r="C226" s="8">
-        <f t="shared" si="51"/>
-        <v>271689.38087069843</v>
-      </c>
-      <c r="E226" s="8">
         <f t="shared" si="52"/>
         <v>271689.38087069843</v>
       </c>
+      <c r="E226" s="8">
+        <f t="shared" si="53"/>
+        <v>271689.38087069843</v>
+      </c>
       <c r="J226" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>271689.38087069843</v>
       </c>
       <c r="K226" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N226" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>177699.63625556164</v>
       </c>
     </row>
@@ -7957,23 +8035,23 @@
         <v>125000</v>
       </c>
       <c r="C227" s="8">
-        <f t="shared" si="51"/>
-        <v>272595.01214026747</v>
-      </c>
-      <c r="E227" s="8">
         <f t="shared" si="52"/>
         <v>272595.01214026747</v>
       </c>
+      <c r="E227" s="8">
+        <f t="shared" si="53"/>
+        <v>272595.01214026747</v>
+      </c>
       <c r="J227" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>272595.01214026747</v>
       </c>
       <c r="K227" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N227" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>178605.26752513068</v>
       </c>
     </row>
@@ -7985,23 +8063,23 @@
         <v>125000</v>
       </c>
       <c r="C228" s="8">
-        <f t="shared" si="51"/>
-        <v>273503.66218073503</v>
-      </c>
-      <c r="E228" s="8">
         <f t="shared" si="52"/>
         <v>273503.66218073503</v>
       </c>
+      <c r="E228" s="8">
+        <f t="shared" si="53"/>
+        <v>273503.66218073503</v>
+      </c>
       <c r="J228" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>273503.66218073503</v>
       </c>
       <c r="K228" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N228" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>179513.91756559824</v>
       </c>
     </row>
@@ -8013,23 +8091,23 @@
         <v>125000</v>
       </c>
       <c r="C229" s="8">
-        <f t="shared" si="51"/>
-        <v>274415.34105467086</v>
-      </c>
-      <c r="E229" s="8">
         <f t="shared" si="52"/>
         <v>274415.34105467086</v>
       </c>
+      <c r="E229" s="8">
+        <f t="shared" si="53"/>
+        <v>274415.34105467086</v>
+      </c>
       <c r="J229" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>274415.34105467086</v>
       </c>
       <c r="K229" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N229" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>180425.59643953407</v>
       </c>
     </row>
@@ -8041,23 +8119,23 @@
         <v>125000</v>
       </c>
       <c r="C230" s="8">
-        <f t="shared" si="51"/>
-        <v>275330.05885818647</v>
-      </c>
-      <c r="E230" s="8">
         <f t="shared" si="52"/>
         <v>275330.05885818647</v>
       </c>
+      <c r="E230" s="8">
+        <f t="shared" si="53"/>
+        <v>275330.05885818647</v>
+      </c>
       <c r="J230" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>275330.05885818647</v>
       </c>
       <c r="K230" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N230" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>181340.31424304968</v>
       </c>
     </row>
@@ -8069,23 +8147,23 @@
         <v>125000</v>
       </c>
       <c r="C231" s="8">
-        <f t="shared" ref="C231:C242" si="54">C230*(1+$T$26)</f>
+        <f t="shared" ref="C231:C242" si="55">C230*(1+$T$26)</f>
         <v>276247.82572104712</v>
       </c>
       <c r="E231" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>276247.82572104712</v>
       </c>
       <c r="J231" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>276247.82572104712</v>
       </c>
       <c r="K231" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N231" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>182258.08110591033</v>
       </c>
     </row>
@@ -8097,23 +8175,23 @@
         <v>125000</v>
       </c>
       <c r="C232" s="8">
+        <f t="shared" si="55"/>
+        <v>277168.65180678398</v>
+      </c>
+      <c r="E232" s="8">
+        <f t="shared" si="53"/>
+        <v>277168.65180678398</v>
+      </c>
+      <c r="J232" s="14">
+        <f t="shared" si="47"/>
+        <v>277168.65180678398</v>
+      </c>
+      <c r="K232" s="14">
         <f t="shared" si="54"/>
-        <v>277168.65180678398</v>
-      </c>
-      <c r="E232" s="8">
-        <f t="shared" si="52"/>
-        <v>277168.65180678398</v>
-      </c>
-      <c r="J232" s="14">
-        <f t="shared" si="46"/>
-        <v>277168.65180678398</v>
-      </c>
-      <c r="K232" s="14">
-        <f t="shared" si="53"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N232" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>183178.90719164719</v>
       </c>
     </row>
@@ -8125,23 +8203,23 @@
         <v>125000</v>
       </c>
       <c r="C233" s="8">
+        <f t="shared" si="55"/>
+        <v>278092.54731280659</v>
+      </c>
+      <c r="E233" s="8">
+        <f t="shared" si="53"/>
+        <v>278092.54731280659</v>
+      </c>
+      <c r="J233" s="14">
+        <f t="shared" si="47"/>
+        <v>278092.54731280659</v>
+      </c>
+      <c r="K233" s="14">
         <f t="shared" si="54"/>
-        <v>278092.54731280659</v>
-      </c>
-      <c r="E233" s="8">
-        <f t="shared" si="52"/>
-        <v>278092.54731280659</v>
-      </c>
-      <c r="J233" s="14">
-        <f t="shared" si="46"/>
-        <v>278092.54731280659</v>
-      </c>
-      <c r="K233" s="14">
-        <f t="shared" si="53"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N233" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>184102.8026976698</v>
       </c>
     </row>
@@ -8153,23 +8231,23 @@
         <v>125000</v>
       </c>
       <c r="C234" s="8">
+        <f t="shared" si="55"/>
+        <v>279019.52247051598</v>
+      </c>
+      <c r="E234" s="8">
+        <f t="shared" si="53"/>
+        <v>279019.52247051598</v>
+      </c>
+      <c r="J234" s="14">
+        <f t="shared" si="47"/>
+        <v>279019.52247051598</v>
+      </c>
+      <c r="K234" s="14">
         <f t="shared" si="54"/>
-        <v>279019.52247051598</v>
-      </c>
-      <c r="E234" s="8">
-        <f t="shared" si="52"/>
-        <v>279019.52247051598</v>
-      </c>
-      <c r="J234" s="14">
-        <f t="shared" si="46"/>
-        <v>279019.52247051598</v>
-      </c>
-      <c r="K234" s="14">
-        <f t="shared" si="53"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N234" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>185029.77785537919</v>
       </c>
     </row>
@@ -8181,23 +8259,23 @@
         <v>125000</v>
       </c>
       <c r="C235" s="8">
+        <f t="shared" si="55"/>
+        <v>279949.58754541771</v>
+      </c>
+      <c r="E235" s="8">
+        <f t="shared" si="53"/>
+        <v>279949.58754541771</v>
+      </c>
+      <c r="J235" s="14">
+        <f t="shared" ref="J235:J266" si="56">E235</f>
+        <v>279949.58754541771</v>
+      </c>
+      <c r="K235" s="14">
         <f t="shared" si="54"/>
-        <v>279949.58754541771</v>
-      </c>
-      <c r="E235" s="8">
-        <f t="shared" si="52"/>
-        <v>279949.58754541771</v>
-      </c>
-      <c r="J235" s="14">
-        <f t="shared" ref="J235:J266" si="55">E235</f>
-        <v>279949.58754541771</v>
-      </c>
-      <c r="K235" s="14">
-        <f t="shared" si="53"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N235" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>185959.84293028092</v>
       </c>
     </row>
@@ -8209,23 +8287,23 @@
         <v>125000</v>
       </c>
       <c r="C236" s="8">
-        <f t="shared" si="54"/>
-        <v>280882.75283723581</v>
-      </c>
-      <c r="E236" s="8">
-        <f t="shared" si="52"/>
-        <v>280882.75283723581</v>
-      </c>
-      <c r="J236" s="14">
         <f t="shared" si="55"/>
         <v>280882.75283723581</v>
       </c>
+      <c r="E236" s="8">
+        <f t="shared" si="53"/>
+        <v>280882.75283723581</v>
+      </c>
+      <c r="J236" s="14">
+        <f t="shared" si="56"/>
+        <v>280882.75283723581</v>
+      </c>
       <c r="K236" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N236" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>186893.00822209902</v>
       </c>
     </row>
@@ -8237,23 +8315,23 @@
         <v>125000</v>
       </c>
       <c r="C237" s="8">
-        <f t="shared" si="54"/>
-        <v>281819.02868002659</v>
-      </c>
-      <c r="E237" s="8">
-        <f t="shared" si="52"/>
-        <v>281819.02868002659</v>
-      </c>
-      <c r="J237" s="14">
         <f t="shared" si="55"/>
         <v>281819.02868002659</v>
       </c>
+      <c r="E237" s="8">
+        <f t="shared" si="53"/>
+        <v>281819.02868002659</v>
+      </c>
+      <c r="J237" s="14">
+        <f t="shared" si="56"/>
+        <v>281819.02868002659</v>
+      </c>
       <c r="K237" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N237" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>187829.2840648898</v>
       </c>
     </row>
@@ -8265,23 +8343,23 @@
         <v>125000</v>
       </c>
       <c r="C238" s="8">
-        <f t="shared" si="54"/>
-        <v>282758.42544229334</v>
-      </c>
-      <c r="E238" s="8">
-        <f t="shared" si="52"/>
-        <v>282758.42544229334</v>
-      </c>
-      <c r="J238" s="14">
         <f t="shared" si="55"/>
         <v>282758.42544229334</v>
       </c>
+      <c r="E238" s="8">
+        <f t="shared" si="53"/>
+        <v>282758.42544229334</v>
+      </c>
+      <c r="J238" s="14">
+        <f t="shared" si="56"/>
+        <v>282758.42544229334</v>
+      </c>
       <c r="K238" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N238" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>188768.68082715655</v>
       </c>
     </row>
@@ -8293,23 +8371,23 @@
         <v>125000</v>
       </c>
       <c r="C239" s="8">
-        <f t="shared" si="54"/>
-        <v>283700.95352710102</v>
-      </c>
-      <c r="E239" s="8">
-        <f t="shared" si="52"/>
-        <v>283700.95352710102</v>
-      </c>
-      <c r="J239" s="14">
         <f t="shared" si="55"/>
         <v>283700.95352710102</v>
       </c>
+      <c r="E239" s="8">
+        <f t="shared" si="53"/>
+        <v>283700.95352710102</v>
+      </c>
+      <c r="J239" s="14">
+        <f t="shared" si="56"/>
+        <v>283700.95352710102</v>
+      </c>
       <c r="K239" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N239" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>189711.20891196423</v>
       </c>
     </row>
@@ -8321,23 +8399,23 @@
         <v>125000</v>
       </c>
       <c r="C240" s="8">
-        <f t="shared" si="54"/>
-        <v>284646.62337219139</v>
-      </c>
-      <c r="E240" s="8">
-        <f t="shared" si="52"/>
-        <v>284646.62337219139</v>
-      </c>
-      <c r="J240" s="14">
         <f t="shared" si="55"/>
         <v>284646.62337219139</v>
       </c>
+      <c r="E240" s="8">
+        <f t="shared" si="53"/>
+        <v>284646.62337219139</v>
+      </c>
+      <c r="J240" s="14">
+        <f t="shared" si="56"/>
+        <v>284646.62337219139</v>
+      </c>
       <c r="K240" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N240" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>190656.8787570546</v>
       </c>
     </row>
@@ -8349,23 +8427,23 @@
         <v>125000</v>
       </c>
       <c r="C241" s="8">
-        <f t="shared" si="54"/>
-        <v>285595.44545009872</v>
-      </c>
-      <c r="E241" s="8">
-        <f t="shared" si="52"/>
-        <v>285595.44545009872</v>
-      </c>
-      <c r="J241" s="14">
         <f t="shared" si="55"/>
         <v>285595.44545009872</v>
       </c>
+      <c r="E241" s="8">
+        <f t="shared" si="53"/>
+        <v>285595.44545009872</v>
+      </c>
+      <c r="J241" s="14">
+        <f t="shared" si="56"/>
+        <v>285595.44545009872</v>
+      </c>
       <c r="K241" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N241" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>191605.70083496193</v>
       </c>
     </row>
@@ -8377,23 +8455,23 @@
         <v>125000</v>
       </c>
       <c r="C242" s="8">
-        <f t="shared" si="54"/>
-        <v>286547.43026826571</v>
-      </c>
-      <c r="E242" s="8">
-        <f t="shared" si="52"/>
-        <v>286547.43026826571</v>
-      </c>
-      <c r="J242" s="14">
         <f t="shared" si="55"/>
         <v>286547.43026826571</v>
       </c>
+      <c r="E242" s="8">
+        <f t="shared" si="53"/>
+        <v>286547.43026826571</v>
+      </c>
+      <c r="J242" s="14">
+        <f t="shared" si="56"/>
+        <v>286547.43026826571</v>
+      </c>
       <c r="K242" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N242" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>192557.68565312892</v>
       </c>
     </row>
@@ -8405,23 +8483,23 @@
         <v>125000</v>
       </c>
       <c r="C243" s="8">
-        <f t="shared" ref="C243:C254" si="56">C242*(1+$T$27)</f>
+        <f t="shared" ref="C243:C254" si="57">C242*(1+$T$27)</f>
         <v>287502.58836915996</v>
       </c>
       <c r="E243" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>287502.58836915996</v>
       </c>
       <c r="J243" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>287502.58836915996</v>
       </c>
       <c r="K243" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N243" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>193512.84375402317</v>
       </c>
     </row>
@@ -8433,23 +8511,23 @@
         <v>125000</v>
       </c>
       <c r="C244" s="8">
+        <f t="shared" si="57"/>
+        <v>288460.93033039052</v>
+      </c>
+      <c r="E244" s="8">
+        <f t="shared" si="53"/>
+        <v>288460.93033039052</v>
+      </c>
+      <c r="J244" s="14">
         <f t="shared" si="56"/>
         <v>288460.93033039052</v>
       </c>
-      <c r="E244" s="8">
-        <f t="shared" si="52"/>
-        <v>288460.93033039052</v>
-      </c>
-      <c r="J244" s="14">
-        <f t="shared" si="55"/>
-        <v>288460.93033039052</v>
-      </c>
       <c r="K244" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N244" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>194471.18571525373</v>
       </c>
     </row>
@@ -8461,23 +8539,23 @@
         <v>125000</v>
       </c>
       <c r="C245" s="8">
+        <f t="shared" si="57"/>
+        <v>289422.46676482516</v>
+      </c>
+      <c r="E245" s="8">
+        <f t="shared" si="53"/>
+        <v>289422.46676482516</v>
+      </c>
+      <c r="J245" s="14">
         <f t="shared" si="56"/>
         <v>289422.46676482516</v>
       </c>
-      <c r="E245" s="8">
-        <f t="shared" si="52"/>
-        <v>289422.46676482516</v>
-      </c>
-      <c r="J245" s="14">
-        <f t="shared" si="55"/>
-        <v>289422.46676482516</v>
-      </c>
       <c r="K245" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N245" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>195432.72214968837</v>
       </c>
     </row>
@@ -8489,23 +8567,23 @@
         <v>125000</v>
       </c>
       <c r="C246" s="8">
+        <f t="shared" si="57"/>
+        <v>290387.20832070796</v>
+      </c>
+      <c r="E246" s="8">
+        <f t="shared" si="53"/>
+        <v>290387.20832070796</v>
+      </c>
+      <c r="J246" s="14">
         <f t="shared" si="56"/>
         <v>290387.20832070796</v>
       </c>
-      <c r="E246" s="8">
-        <f t="shared" si="52"/>
-        <v>290387.20832070796</v>
-      </c>
-      <c r="J246" s="14">
-        <f t="shared" si="55"/>
-        <v>290387.20832070796</v>
-      </c>
       <c r="K246" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N246" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>196397.46370557116</v>
       </c>
     </row>
@@ -8517,23 +8595,23 @@
         <v>125000</v>
       </c>
       <c r="C247" s="8">
+        <f t="shared" si="57"/>
+        <v>291355.165681777</v>
+      </c>
+      <c r="E247" s="8">
+        <f t="shared" si="53"/>
+        <v>291355.165681777</v>
+      </c>
+      <c r="J247" s="14">
         <f t="shared" si="56"/>
         <v>291355.165681777</v>
       </c>
-      <c r="E247" s="8">
-        <f t="shared" si="52"/>
-        <v>291355.165681777</v>
-      </c>
-      <c r="J247" s="14">
-        <f t="shared" si="55"/>
-        <v>291355.165681777</v>
-      </c>
       <c r="K247" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N247" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>197365.42106664021</v>
       </c>
     </row>
@@ -8545,23 +8623,23 @@
         <v>125000</v>
       </c>
       <c r="C248" s="8">
+        <f t="shared" si="57"/>
+        <v>292326.34956738295</v>
+      </c>
+      <c r="E248" s="8">
+        <f t="shared" si="53"/>
+        <v>292326.34956738295</v>
+      </c>
+      <c r="J248" s="14">
         <f t="shared" si="56"/>
         <v>292326.34956738295</v>
       </c>
-      <c r="E248" s="8">
-        <f t="shared" si="52"/>
-        <v>292326.34956738295</v>
-      </c>
-      <c r="J248" s="14">
-        <f t="shared" si="55"/>
-        <v>292326.34956738295</v>
-      </c>
       <c r="K248" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N248" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>198336.60495224615</v>
       </c>
     </row>
@@ -8573,23 +8651,23 @@
         <v>125000</v>
       </c>
       <c r="C249" s="8">
+        <f t="shared" si="57"/>
+        <v>293300.77073260758</v>
+      </c>
+      <c r="E249" s="8">
+        <f t="shared" si="53"/>
+        <v>293300.77073260758</v>
+      </c>
+      <c r="J249" s="14">
         <f t="shared" si="56"/>
         <v>293300.77073260758</v>
       </c>
-      <c r="E249" s="8">
-        <f t="shared" si="52"/>
-        <v>293300.77073260758</v>
-      </c>
-      <c r="J249" s="14">
-        <f t="shared" si="55"/>
-        <v>293300.77073260758</v>
-      </c>
       <c r="K249" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N249" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>199311.02611747078</v>
       </c>
     </row>
@@ -8601,23 +8679,23 @@
         <v>125000</v>
       </c>
       <c r="C250" s="8">
+        <f t="shared" si="57"/>
+        <v>294278.43996838294</v>
+      </c>
+      <c r="E250" s="8">
+        <f t="shared" si="53"/>
+        <v>294278.43996838294</v>
+      </c>
+      <c r="J250" s="14">
         <f t="shared" si="56"/>
         <v>294278.43996838294</v>
       </c>
-      <c r="E250" s="8">
-        <f t="shared" si="52"/>
-        <v>294278.43996838294</v>
-      </c>
-      <c r="J250" s="14">
-        <f t="shared" si="55"/>
-        <v>294278.43996838294</v>
-      </c>
       <c r="K250" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N250" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>200288.69535324615</v>
       </c>
     </row>
@@ -8629,23 +8707,23 @@
         <v>125000</v>
       </c>
       <c r="C251" s="8">
+        <f t="shared" si="57"/>
+        <v>295259.36810161092</v>
+      </c>
+      <c r="E251" s="8">
+        <f t="shared" si="53"/>
+        <v>295259.36810161092</v>
+      </c>
+      <c r="J251" s="14">
         <f t="shared" si="56"/>
         <v>295259.36810161092</v>
       </c>
-      <c r="E251" s="8">
-        <f t="shared" si="52"/>
-        <v>295259.36810161092</v>
-      </c>
-      <c r="J251" s="14">
-        <f t="shared" si="55"/>
-        <v>295259.36810161092</v>
-      </c>
       <c r="K251" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N251" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>201269.62348647413</v>
       </c>
     </row>
@@ -8657,23 +8735,23 @@
         <v>125000</v>
       </c>
       <c r="C252" s="8">
+        <f t="shared" si="57"/>
+        <v>296243.56599528296</v>
+      </c>
+      <c r="E252" s="8">
+        <f t="shared" si="53"/>
+        <v>296243.56599528296</v>
+      </c>
+      <c r="J252" s="14">
         <f t="shared" si="56"/>
         <v>296243.56599528296</v>
       </c>
-      <c r="E252" s="8">
-        <f t="shared" si="52"/>
-        <v>296243.56599528296</v>
-      </c>
-      <c r="J252" s="14">
-        <f t="shared" si="55"/>
-        <v>296243.56599528296</v>
-      </c>
       <c r="K252" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N252" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>202253.82138014617</v>
       </c>
     </row>
@@ -8685,23 +8763,23 @@
         <v>125000</v>
       </c>
       <c r="C253" s="8">
+        <f t="shared" si="57"/>
+        <v>297231.04454860056</v>
+      </c>
+      <c r="E253" s="8">
+        <f t="shared" si="53"/>
+        <v>297231.04454860056</v>
+      </c>
+      <c r="J253" s="14">
         <f t="shared" si="56"/>
         <v>297231.04454860056</v>
       </c>
-      <c r="E253" s="8">
-        <f t="shared" si="52"/>
-        <v>297231.04454860056</v>
-      </c>
-      <c r="J253" s="14">
-        <f t="shared" si="55"/>
-        <v>297231.04454860056</v>
-      </c>
       <c r="K253" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N253" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>203241.29993346377</v>
       </c>
     </row>
@@ -8713,23 +8791,23 @@
         <v>125000</v>
       </c>
       <c r="C254" s="8">
+        <f t="shared" si="57"/>
+        <v>298221.81469709595</v>
+      </c>
+      <c r="E254" s="8">
+        <f t="shared" si="53"/>
+        <v>298221.81469709595</v>
+      </c>
+      <c r="J254" s="14">
         <f t="shared" si="56"/>
         <v>298221.81469709595</v>
       </c>
-      <c r="E254" s="8">
-        <f t="shared" si="52"/>
-        <v>298221.81469709595</v>
-      </c>
-      <c r="J254" s="14">
-        <f t="shared" si="55"/>
-        <v>298221.81469709595</v>
-      </c>
       <c r="K254" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N254" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>204232.07008195916</v>
       </c>
     </row>
@@ -8741,23 +8819,23 @@
         <v>125000</v>
       </c>
       <c r="C255" s="8">
-        <f t="shared" ref="C255:C266" si="57">C254*(1+$T$28)</f>
+        <f t="shared" ref="C255:C266" si="58">C254*(1+$T$28)</f>
         <v>299215.88741275296</v>
       </c>
       <c r="E255" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>299215.88741275296</v>
       </c>
       <c r="J255" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>299215.88741275296</v>
       </c>
       <c r="K255" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N255" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>205226.14279761616</v>
       </c>
     </row>
@@ -8769,19 +8847,19 @@
         <v>125000</v>
       </c>
       <c r="C256" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>300213.27370412881</v>
       </c>
       <c r="E256" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>300213.27370412881</v>
       </c>
       <c r="J256" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>300213.27370412881</v>
       </c>
       <c r="K256" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N256" s="23">
@@ -8797,23 +8875,23 @@
         <v>125000</v>
       </c>
       <c r="C257" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>301213.98461647594</v>
       </c>
       <c r="E257" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>301213.98461647594</v>
       </c>
       <c r="J257" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>301213.98461647594</v>
       </c>
       <c r="K257" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N257" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>207224.24000133915</v>
       </c>
     </row>
@@ -8825,19 +8903,19 @@
         <v>125000</v>
       </c>
       <c r="C258" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>302218.03123186424</v>
       </c>
       <c r="E258" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>302218.03123186424</v>
       </c>
       <c r="J258" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>302218.03123186424</v>
       </c>
       <c r="K258" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N258" s="23">
@@ -8853,23 +8931,23 @@
         <v>125000</v>
       </c>
       <c r="C259" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>303225.42466930381</v>
       </c>
       <c r="E259" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>303225.42466930381</v>
       </c>
       <c r="J259" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>303225.42466930381</v>
       </c>
       <c r="K259" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N259" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>209235.68005416702</v>
       </c>
     </row>
@@ -8881,23 +8959,23 @@
         <v>125000</v>
       </c>
       <c r="C260" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>304236.1760848682</v>
       </c>
       <c r="E260" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>304236.1760848682</v>
       </c>
       <c r="J260" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>304236.1760848682</v>
       </c>
       <c r="K260" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N260" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>210246.43146973141</v>
       </c>
     </row>
@@ -8909,23 +8987,23 @@
         <v>125000</v>
       </c>
       <c r="C261" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>305250.29667181778</v>
       </c>
       <c r="E261" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>305250.29667181778</v>
       </c>
       <c r="J261" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>305250.29667181778</v>
       </c>
       <c r="K261" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N261" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>211260.55205668099</v>
       </c>
     </row>
@@ -8937,23 +9015,23 @@
         <v>125000</v>
       </c>
       <c r="C262" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>306267.79766072385</v>
       </c>
       <c r="E262" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>306267.79766072385</v>
       </c>
       <c r="J262" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>306267.79766072385</v>
       </c>
       <c r="K262" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N262" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>212278.05304558706</v>
       </c>
     </row>
@@ -8965,23 +9043,23 @@
         <v>125000</v>
       </c>
       <c r="C263" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>307288.69031959295</v>
       </c>
       <c r="E263" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>307288.69031959295</v>
       </c>
       <c r="J263" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>307288.69031959295</v>
       </c>
       <c r="K263" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N263" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>213298.94570445616</v>
       </c>
     </row>
@@ -8993,23 +9071,23 @@
         <v>125000</v>
       </c>
       <c r="C264" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>308312.98595399159</v>
       </c>
       <c r="E264" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>308312.98595399159</v>
       </c>
       <c r="J264" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>308312.98595399159</v>
       </c>
       <c r="K264" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N264" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>214323.2413388548</v>
       </c>
     </row>
@@ -9021,23 +9099,23 @@
         <v>125000</v>
       </c>
       <c r="C265" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>309340.69590717158</v>
       </c>
       <c r="E265" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>309340.69590717158</v>
       </c>
       <c r="J265" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>309340.69590717158</v>
       </c>
       <c r="K265" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N265" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>215350.95129203479</v>
       </c>
     </row>
@@ -9049,23 +9127,23 @@
         <v>125000</v>
       </c>
       <c r="C266" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>310371.83156019554</v>
       </c>
       <c r="E266" s="8">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>310371.83156019554</v>
       </c>
       <c r="J266" s="14">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>310371.83156019554</v>
       </c>
       <c r="K266" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>93989.744615136791</v>
       </c>
       <c r="N266" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>216382.08694505875</v>
       </c>
     </row>
@@ -9084,7 +9162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091661EA-3B4B-45E0-8BEC-2BB03148A33A}">
   <dimension ref="A1:A242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/finansy_osnova_10dec.xlsx
+++ b/finansy_osnova_10dec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\case_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8187DA-0998-4EAB-B724-E43C2864479F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2131617A-5F78-4957-836D-6F9720EC66F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1260" windowWidth="20070" windowHeight="16875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1260" windowWidth="20070" windowHeight="16875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Номинал" sheetId="6" r:id="rId1"/>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B8550-B4BB-4D49-BF4D-B1AFCFC71464}">
   <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W28" sqref="W9:W28"/>
     </sheetView>
   </sheetViews>
@@ -1029,7 +1029,7 @@
         <v>1.06</v>
       </c>
       <c r="W11">
-        <f t="shared" ref="W11:W29" si="4">W10*V11</f>
+        <f t="shared" ref="W11:W28" si="4">W10*V11</f>
         <v>1.2079230000000001</v>
       </c>
     </row>
@@ -10387,8 +10387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD47440-B7D7-441F-87D5-0EE941E741C3}">
   <dimension ref="A1:Z267"/>
   <sheetViews>
-    <sheetView topLeftCell="J211" zoomScale="62" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="N267" sqref="N267"/>
+    <sheetView tabSelected="1" topLeftCell="J211" zoomScale="62" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="N268" sqref="N268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18654,7 +18654,10 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N267" s="23"/>
+      <c r="N267" s="23">
+        <f>SUM(N25:N266)</f>
+        <v>21782284.258173633</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
